--- a/data/combined.xlsx
+++ b/data/combined.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="0" windowWidth="25360" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="usatoday-salary-2015.tsv" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="519">
   <si>
     <t>RANK</t>
   </si>
@@ -1576,6 +1576,9 @@
   </si>
   <si>
     <t>dollar per pitch</t>
+  </si>
+  <si>
+    <t>did not pitch</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1633,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1638,18 +1641,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1982,7 +2002,7 @@
   <dimension ref="A1:M444"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="J22" sqref="A1:M444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2060,9 +2080,11 @@
       <c r="H2" t="s">
         <v>397</v>
       </c>
-      <c r="M2" s="1" t="e">
-        <f>D2/I2</f>
-        <v>#DIV/0!</v>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2090,9 +2112,11 @@
       <c r="H3" t="s">
         <v>260</v>
       </c>
-      <c r="M3" s="1" t="e">
-        <f>D3/I3</f>
-        <v>#DIV/0!</v>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2120,9 +2144,11 @@
       <c r="H4" t="s">
         <v>192</v>
       </c>
-      <c r="M4" s="1" t="e">
-        <f>D4/I4</f>
-        <v>#DIV/0!</v>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2150,9 +2176,11 @@
       <c r="H5" t="s">
         <v>381</v>
       </c>
-      <c r="M5" s="1" t="e">
-        <f>D5/I5</f>
-        <v>#DIV/0!</v>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2180,9 +2208,11 @@
       <c r="H6" t="s">
         <v>129</v>
       </c>
-      <c r="M6" s="1" t="e">
-        <f>D6/I6</f>
-        <v>#DIV/0!</v>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2210,9 +2240,11 @@
       <c r="H7" t="s">
         <v>112</v>
       </c>
-      <c r="M7" s="1" t="e">
-        <f>D7/I7</f>
-        <v>#DIV/0!</v>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2240,9 +2272,11 @@
       <c r="H8" t="s">
         <v>375</v>
       </c>
-      <c r="M8" s="1" t="e">
-        <f>D8/I8</f>
-        <v>#DIV/0!</v>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2270,9 +2304,11 @@
       <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="1" t="e">
-        <f>D9/I9</f>
-        <v>#DIV/0!</v>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2300,9 +2336,11 @@
       <c r="H10" t="s">
         <v>168</v>
       </c>
-      <c r="M10" s="1" t="e">
-        <f>D10/I10</f>
-        <v>#DIV/0!</v>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2330,9 +2368,11 @@
       <c r="H11" t="s">
         <v>475</v>
       </c>
-      <c r="M11" s="1" t="e">
-        <f>D11/I11</f>
-        <v>#DIV/0!</v>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2360,9 +2400,11 @@
       <c r="H12" t="s">
         <v>469</v>
       </c>
-      <c r="M12" s="1" t="e">
-        <f>D12/I12</f>
-        <v>#DIV/0!</v>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2390,9 +2432,11 @@
       <c r="H13" t="s">
         <v>177</v>
       </c>
-      <c r="M13" s="1" t="e">
-        <f>D13/I13</f>
-        <v>#DIV/0!</v>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2420,9 +2464,11 @@
       <c r="H14" t="s">
         <v>301</v>
       </c>
-      <c r="M14" s="1" t="e">
-        <f>D14/I14</f>
-        <v>#DIV/0!</v>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2450,9 +2496,11 @@
       <c r="H15" t="s">
         <v>313</v>
       </c>
-      <c r="M15" s="1" t="e">
-        <f>D15/I15</f>
-        <v>#DIV/0!</v>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2480,9 +2528,11 @@
       <c r="H16" t="s">
         <v>441</v>
       </c>
-      <c r="M16" s="1" t="e">
-        <f>D16/I16</f>
-        <v>#DIV/0!</v>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2510,9 +2560,11 @@
       <c r="H17" t="s">
         <v>142</v>
       </c>
-      <c r="M17" s="1" t="e">
-        <f>D17/I17</f>
-        <v>#DIV/0!</v>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2540,9 +2592,11 @@
       <c r="H18" t="s">
         <v>456</v>
       </c>
-      <c r="M18" s="1" t="e">
-        <f>D18/I18</f>
-        <v>#DIV/0!</v>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2570,9 +2624,11 @@
       <c r="H19" t="s">
         <v>380</v>
       </c>
-      <c r="M19" s="1" t="e">
-        <f>D19/I19</f>
-        <v>#DIV/0!</v>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2600,9 +2656,11 @@
       <c r="H20" t="s">
         <v>304</v>
       </c>
-      <c r="M20" s="1" t="e">
-        <f>D20/I20</f>
-        <v>#DIV/0!</v>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2630,9 +2688,11 @@
       <c r="H21" t="s">
         <v>310</v>
       </c>
-      <c r="M21" s="1" t="e">
-        <f>D21/I21</f>
-        <v>#DIV/0!</v>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2660,9 +2720,11 @@
       <c r="H22" t="s">
         <v>477</v>
       </c>
-      <c r="M22" s="1" t="e">
-        <f>D22/I22</f>
-        <v>#DIV/0!</v>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2690,9 +2752,11 @@
       <c r="H23" t="s">
         <v>435</v>
       </c>
-      <c r="M23" s="1" t="e">
-        <f>D23/I23</f>
-        <v>#DIV/0!</v>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2720,9 +2784,11 @@
       <c r="H24" t="s">
         <v>160</v>
       </c>
-      <c r="M24" s="1" t="e">
-        <f>D24/I24</f>
-        <v>#DIV/0!</v>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2750,9 +2816,11 @@
       <c r="H25" t="s">
         <v>152</v>
       </c>
-      <c r="M25" s="1" t="e">
-        <f>D25/I25</f>
-        <v>#DIV/0!</v>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2780,9 +2848,11 @@
       <c r="H26" t="s">
         <v>472</v>
       </c>
-      <c r="M26" s="1" t="e">
-        <f>D26/I26</f>
-        <v>#DIV/0!</v>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2810,9 +2880,11 @@
       <c r="H27" t="s">
         <v>442</v>
       </c>
-      <c r="M27" s="1" t="e">
-        <f>D27/I27</f>
-        <v>#DIV/0!</v>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2840,9 +2912,11 @@
       <c r="H28" t="s">
         <v>505</v>
       </c>
-      <c r="M28" s="1" t="e">
-        <f>D28/I28</f>
-        <v>#DIV/0!</v>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2870,9 +2944,11 @@
       <c r="H29" t="s">
         <v>278</v>
       </c>
-      <c r="M29" s="1" t="e">
-        <f>D29/I29</f>
-        <v>#DIV/0!</v>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2900,9 +2976,11 @@
       <c r="H30" t="s">
         <v>299</v>
       </c>
-      <c r="M30" s="1" t="e">
-        <f>D30/I30</f>
-        <v>#DIV/0!</v>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2930,9 +3008,11 @@
       <c r="H31" t="s">
         <v>417</v>
       </c>
-      <c r="M31" s="1" t="e">
-        <f>D31/I31</f>
-        <v>#DIV/0!</v>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2960,9 +3040,11 @@
       <c r="H32" t="s">
         <v>453</v>
       </c>
-      <c r="M32" s="1" t="e">
-        <f>D32/I32</f>
-        <v>#DIV/0!</v>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2990,9 +3072,11 @@
       <c r="H33" t="s">
         <v>412</v>
       </c>
-      <c r="M33" s="1" t="e">
-        <f>D33/I33</f>
-        <v>#DIV/0!</v>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -3020,9 +3104,11 @@
       <c r="H34" t="s">
         <v>98</v>
       </c>
-      <c r="M34" s="1" t="e">
-        <f>D34/I34</f>
-        <v>#DIV/0!</v>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -3050,9 +3136,11 @@
       <c r="H35" t="s">
         <v>339</v>
       </c>
-      <c r="M35" s="1" t="e">
-        <f>D35/I35</f>
-        <v>#DIV/0!</v>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -3093,7 +3181,7 @@
         <v>150274</v>
       </c>
       <c r="M36" s="1">
-        <f>D36/I36</f>
+        <f t="shared" ref="M2:M65" si="0">D36/I36</f>
         <v>2500000</v>
       </c>
     </row>
@@ -3135,7 +3223,7 @@
         <v>346797</v>
       </c>
       <c r="M37" s="1">
-        <f>D37/I37</f>
+        <f t="shared" si="0"/>
         <v>82201.752808988764</v>
       </c>
     </row>
@@ -3177,7 +3265,7 @@
         <v>456701</v>
       </c>
       <c r="M38" s="1">
-        <f>D38/I38</f>
+        <f t="shared" si="0"/>
         <v>58479.53216374269</v>
       </c>
     </row>
@@ -3219,7 +3307,7 @@
         <v>425794</v>
       </c>
       <c r="M39" s="1">
-        <f>D39/I39</f>
+        <f t="shared" si="0"/>
         <v>50913.838120104439</v>
       </c>
     </row>
@@ -3261,7 +3349,7 @@
         <v>457448</v>
       </c>
       <c r="M40" s="1">
-        <f>D40/I40</f>
+        <f t="shared" si="0"/>
         <v>48708.487084870845</v>
       </c>
     </row>
@@ -3303,7 +3391,7 @@
         <v>460283</v>
       </c>
       <c r="M41" s="1">
-        <f>D41/I41</f>
+        <f t="shared" si="0"/>
         <v>43636.36363636364</v>
       </c>
     </row>
@@ -3345,7 +3433,7 @@
         <v>493117</v>
       </c>
       <c r="M42" s="1">
-        <f>D42/I42</f>
+        <f t="shared" si="0"/>
         <v>38461.538461538461</v>
       </c>
     </row>
@@ -3387,7 +3475,7 @@
         <v>489334</v>
       </c>
       <c r="M43" s="1">
-        <f>D43/I43</f>
+        <f t="shared" si="0"/>
         <v>34615.384615384617</v>
       </c>
     </row>
@@ -3429,7 +3517,7 @@
         <v>435221</v>
       </c>
       <c r="M44" s="1">
-        <f>D44/I44</f>
+        <f t="shared" si="0"/>
         <v>34059.945504087191</v>
       </c>
     </row>
@@ -3471,7 +3559,7 @@
         <v>457915</v>
       </c>
       <c r="M45" s="1">
-        <f>D45/I45</f>
+        <f t="shared" si="0"/>
         <v>26041.666666666668</v>
       </c>
     </row>
@@ -3513,7 +3601,7 @@
         <v>516769</v>
       </c>
       <c r="M46" s="1">
-        <f>D46/I46</f>
+        <f t="shared" si="0"/>
         <v>24714.285714285714</v>
       </c>
     </row>
@@ -3555,7 +3643,7 @@
         <v>430912</v>
       </c>
       <c r="M47" s="1">
-        <f>D47/I47</f>
+        <f t="shared" si="0"/>
         <v>20980.194360523667</v>
       </c>
     </row>
@@ -3597,7 +3685,7 @@
         <v>425856</v>
       </c>
       <c r="M48" s="1">
-        <f>D48/I48</f>
+        <f t="shared" si="0"/>
         <v>18348.623853211007</v>
       </c>
     </row>
@@ -3639,7 +3727,7 @@
         <v>445060</v>
       </c>
       <c r="M49" s="1">
-        <f>D49/I49</f>
+        <f t="shared" si="0"/>
         <v>18045.112781954886</v>
       </c>
     </row>
@@ -3681,7 +3769,7 @@
         <v>502239</v>
       </c>
       <c r="M50" s="1">
-        <f>D50/I50</f>
+        <f t="shared" si="0"/>
         <v>17967.59941089838</v>
       </c>
     </row>
@@ -3723,7 +3811,7 @@
         <v>477229</v>
       </c>
       <c r="M51" s="1">
-        <f>D51/I51</f>
+        <f t="shared" si="0"/>
         <v>17147.435897435898</v>
       </c>
     </row>
@@ -3765,7 +3853,7 @@
         <v>545404</v>
       </c>
       <c r="M52" s="1">
-        <f>D52/I52</f>
+        <f t="shared" si="0"/>
         <v>15625</v>
       </c>
     </row>
@@ -3807,7 +3895,7 @@
         <v>607359</v>
       </c>
       <c r="M53" s="1">
-        <f>D53/I53</f>
+        <f t="shared" si="0"/>
         <v>15513.626834381552</v>
       </c>
     </row>
@@ -3849,7 +3937,7 @@
         <v>595465</v>
       </c>
       <c r="M54" s="1">
-        <f>D54/I54</f>
+        <f t="shared" si="0"/>
         <v>15378.787878787878</v>
       </c>
     </row>
@@ -3891,7 +3979,7 @@
         <v>449079</v>
       </c>
       <c r="M55" s="1">
-        <f>D55/I55</f>
+        <f t="shared" si="0"/>
         <v>14912.280701754386</v>
       </c>
     </row>
@@ -3933,7 +4021,7 @@
         <v>429719</v>
       </c>
       <c r="M56" s="1">
-        <f>D56/I56</f>
+        <f t="shared" si="0"/>
         <v>14840.182648401826</v>
       </c>
     </row>
@@ -3975,7 +4063,7 @@
         <v>449097</v>
       </c>
       <c r="M57" s="1">
-        <f>D57/I57</f>
+        <f t="shared" si="0"/>
         <v>14428.412874583795</v>
       </c>
     </row>
@@ -4017,7 +4105,7 @@
         <v>493157</v>
       </c>
       <c r="M58" s="1">
-        <f>D58/I58</f>
+        <f t="shared" si="0"/>
         <v>14218.009478672986</v>
       </c>
     </row>
@@ -4059,7 +4147,7 @@
         <v>462089</v>
       </c>
       <c r="M59" s="1">
-        <f>D59/I59</f>
+        <f t="shared" si="0"/>
         <v>14097.222222222223</v>
       </c>
     </row>
@@ -4101,7 +4189,7 @@
         <v>453311</v>
       </c>
       <c r="M60" s="1">
-        <f>D60/I60</f>
+        <f t="shared" si="0"/>
         <v>13605.442176870749</v>
       </c>
     </row>
@@ -4143,7 +4231,7 @@
         <v>434378</v>
       </c>
       <c r="M61" s="1">
-        <f>D61/I61</f>
+        <f t="shared" si="0"/>
         <v>13023.255813953489</v>
       </c>
     </row>
@@ -4185,7 +4273,7 @@
         <v>450306</v>
       </c>
       <c r="M62" s="1">
-        <f>D62/I62</f>
+        <f t="shared" si="0"/>
         <v>12372.634643377001</v>
       </c>
     </row>
@@ -4227,7 +4315,7 @@
         <v>506693</v>
       </c>
       <c r="M63" s="1">
-        <f>D63/I63</f>
+        <f t="shared" si="0"/>
         <v>11976.047904191617</v>
       </c>
     </row>
@@ -4269,7 +4357,7 @@
         <v>518813</v>
       </c>
       <c r="M64" s="1">
-        <f>D64/I64</f>
+        <f t="shared" si="0"/>
         <v>11506.276150627615</v>
       </c>
     </row>
@@ -4311,7 +4399,7 @@
         <v>447714</v>
       </c>
       <c r="M65" s="1">
-        <f>D65/I65</f>
+        <f t="shared" si="0"/>
         <v>11265.709156193896</v>
       </c>
     </row>
@@ -4353,7 +4441,7 @@
         <v>346793</v>
       </c>
       <c r="M66" s="1">
-        <f>D66/I66</f>
+        <f t="shared" ref="M66:M129" si="1">D66/I66</f>
         <v>10676.156583629892</v>
       </c>
     </row>
@@ -4395,7 +4483,7 @@
         <v>502085</v>
       </c>
       <c r="M67" s="1">
-        <f>D67/I67</f>
+        <f t="shared" si="1"/>
         <v>10193.67991845056</v>
       </c>
     </row>
@@ -4437,7 +4525,7 @@
         <v>474668</v>
       </c>
       <c r="M68" s="1">
-        <f>D68/I68</f>
+        <f t="shared" si="1"/>
         <v>10117.64705882353</v>
       </c>
     </row>
@@ -4479,7 +4567,7 @@
         <v>547888</v>
       </c>
       <c r="M69" s="1">
-        <f>D69/I69</f>
+        <f t="shared" si="1"/>
         <v>9606.9868995633187</v>
       </c>
     </row>
@@ -4521,7 +4609,7 @@
         <v>457435</v>
       </c>
       <c r="M70" s="1">
-        <f>D70/I70</f>
+        <f t="shared" si="1"/>
         <v>9453.7815126050427</v>
       </c>
     </row>
@@ -4563,7 +4651,7 @@
         <v>475416</v>
       </c>
       <c r="M71" s="1">
-        <f>D71/I71</f>
+        <f t="shared" si="1"/>
         <v>9405.9405940594061</v>
       </c>
     </row>
@@ -4605,7 +4693,7 @@
         <v>445276</v>
       </c>
       <c r="M72" s="1">
-        <f>D72/I72</f>
+        <f t="shared" si="1"/>
         <v>9339.6226415094334</v>
       </c>
     </row>
@@ -4647,7 +4735,7 @@
         <v>453192</v>
       </c>
       <c r="M73" s="1">
-        <f>D73/I73</f>
+        <f t="shared" si="1"/>
         <v>9316.7701863354032</v>
       </c>
     </row>
@@ -4689,7 +4777,7 @@
         <v>493603</v>
       </c>
       <c r="M74" s="1">
-        <f>D74/I74</f>
+        <f t="shared" si="1"/>
         <v>9154.929577464789</v>
       </c>
     </row>
@@ -4731,7 +4819,7 @@
         <v>458730</v>
       </c>
       <c r="M75" s="1">
-        <f>D75/I75</f>
+        <f t="shared" si="1"/>
         <v>9068.6274509803916</v>
       </c>
     </row>
@@ -4773,7 +4861,7 @@
         <v>455009</v>
       </c>
       <c r="M76" s="1">
-        <f>D76/I76</f>
+        <f t="shared" si="1"/>
         <v>9027.0812437311943</v>
       </c>
     </row>
@@ -4815,7 +4903,7 @@
         <v>518886</v>
       </c>
       <c r="M77" s="1">
-        <f>D77/I77</f>
+        <f t="shared" si="1"/>
         <v>8928.5714285714294</v>
       </c>
     </row>
@@ -4857,7 +4945,7 @@
         <v>450351</v>
       </c>
       <c r="M78" s="1">
-        <f>D78/I78</f>
+        <f t="shared" si="1"/>
         <v>8738.7812942843648</v>
       </c>
     </row>
@@ -4899,7 +4987,7 @@
         <v>518833</v>
       </c>
       <c r="M79" s="1">
-        <f>D79/I79</f>
+        <f t="shared" si="1"/>
         <v>8657.6271186440681</v>
       </c>
     </row>
@@ -4941,7 +5029,7 @@
         <v>518716</v>
       </c>
       <c r="M80" s="1">
-        <f>D80/I80</f>
+        <f t="shared" si="1"/>
         <v>8603.8961038961043</v>
       </c>
     </row>
@@ -4983,7 +5071,7 @@
         <v>282332</v>
       </c>
       <c r="M81" s="1">
-        <f>D81/I81</f>
+        <f t="shared" si="1"/>
         <v>8509.0640029596743</v>
       </c>
     </row>
@@ -5025,7 +5113,7 @@
         <v>457429</v>
       </c>
       <c r="M82" s="1">
-        <f>D82/I82</f>
+        <f t="shared" si="1"/>
         <v>8358.6626139817636</v>
       </c>
     </row>
@@ -5067,7 +5155,7 @@
         <v>425844</v>
       </c>
       <c r="M83" s="1">
-        <f>D83/I83</f>
+        <f t="shared" si="1"/>
         <v>8335.9061438715653</v>
       </c>
     </row>
@@ -5109,7 +5197,7 @@
         <v>433587</v>
       </c>
       <c r="M84" s="1">
-        <f>D84/I84</f>
+        <f t="shared" si="1"/>
         <v>8176.691447368421</v>
       </c>
     </row>
@@ -5151,7 +5239,7 @@
         <v>502706</v>
       </c>
       <c r="M85" s="1">
-        <f>D85/I85</f>
+        <f t="shared" si="1"/>
         <v>8140.8140814081407</v>
       </c>
     </row>
@@ -5193,7 +5281,7 @@
         <v>429722</v>
       </c>
       <c r="M86" s="1">
-        <f>D86/I86</f>
+        <f t="shared" si="1"/>
         <v>8045.2920143027413</v>
       </c>
     </row>
@@ -5235,7 +5323,7 @@
         <v>542924</v>
       </c>
       <c r="M87" s="1">
-        <f>D87/I87</f>
+        <f t="shared" si="1"/>
         <v>8025</v>
       </c>
     </row>
@@ -5277,7 +5365,7 @@
         <v>276542</v>
       </c>
       <c r="M88" s="1">
-        <f>D88/I88</f>
+        <f t="shared" si="1"/>
         <v>7931.2090558766859</v>
       </c>
     </row>
@@ -5319,7 +5407,7 @@
         <v>493159</v>
       </c>
       <c r="M89" s="1">
-        <f>D89/I89</f>
+        <f t="shared" si="1"/>
         <v>7490.63670411985</v>
       </c>
     </row>
@@ -5361,7 +5449,7 @@
         <v>450308</v>
       </c>
       <c r="M90" s="1">
-        <f>D90/I90</f>
+        <f t="shared" si="1"/>
         <v>7434.6405228758167</v>
       </c>
     </row>
@@ -5403,7 +5491,7 @@
         <v>276351</v>
       </c>
       <c r="M91" s="1">
-        <f>D91/I91</f>
+        <f t="shared" si="1"/>
         <v>7402.707275803723</v>
       </c>
     </row>
@@ -5445,7 +5533,7 @@
         <v>329092</v>
       </c>
       <c r="M92" s="1">
-        <f>D92/I92</f>
+        <f t="shared" si="1"/>
         <v>7389.1625615763551</v>
       </c>
     </row>
@@ -5487,7 +5575,7 @@
         <v>425657</v>
       </c>
       <c r="M93" s="1">
-        <f>D93/I93</f>
+        <f t="shared" si="1"/>
         <v>7339.4495412844035</v>
       </c>
     </row>
@@ -5529,7 +5617,7 @@
         <v>434442</v>
       </c>
       <c r="M94" s="1">
-        <f>D94/I94</f>
+        <f t="shared" si="1"/>
         <v>7275.132275132275</v>
       </c>
     </row>
@@ -5571,7 +5659,7 @@
         <v>453329</v>
       </c>
       <c r="M95" s="1">
-        <f>D95/I95</f>
+        <f t="shared" si="1"/>
         <v>7138.6946386946383</v>
       </c>
     </row>
@@ -5613,7 +5701,7 @@
         <v>477132</v>
       </c>
       <c r="M96" s="1">
-        <f>D96/I96</f>
+        <f t="shared" si="1"/>
         <v>7075.4716981132078</v>
       </c>
     </row>
@@ -5655,7 +5743,7 @@
         <v>279824</v>
       </c>
       <c r="M97" s="1">
-        <f>D97/I97</f>
+        <f t="shared" si="1"/>
         <v>7069.6359137504414</v>
       </c>
     </row>
@@ -5697,7 +5785,7 @@
         <v>276514</v>
       </c>
       <c r="M98" s="1">
-        <f>D98/I98</f>
+        <f t="shared" si="1"/>
         <v>7042.2535211267605</v>
       </c>
     </row>
@@ -5739,7 +5827,7 @@
         <v>448159</v>
       </c>
       <c r="M99" s="1">
-        <f>D99/I99</f>
+        <f t="shared" si="1"/>
         <v>7042.2535211267605</v>
       </c>
     </row>
@@ -5781,7 +5869,7 @@
         <v>430935</v>
       </c>
       <c r="M100" s="1">
-        <f>D100/I100</f>
+        <f t="shared" si="1"/>
         <v>7029.6141190547414</v>
       </c>
     </row>
@@ -5823,7 +5911,7 @@
         <v>518553</v>
       </c>
       <c r="M101" s="1">
-        <f>D101/I101</f>
+        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
     </row>
@@ -5865,7 +5953,7 @@
         <v>502381</v>
       </c>
       <c r="M102" s="1">
-        <f>D102/I102</f>
+        <f t="shared" si="1"/>
         <v>6920.415224913495</v>
       </c>
     </row>
@@ -5907,7 +5995,7 @@
         <v>450729</v>
       </c>
       <c r="M103" s="1">
-        <f>D103/I103</f>
+        <f t="shared" si="1"/>
         <v>6892.3821039903269</v>
       </c>
     </row>
@@ -5949,7 +6037,7 @@
         <v>547973</v>
       </c>
       <c r="M104" s="1">
-        <f>D104/I104</f>
+        <f t="shared" si="1"/>
         <v>6886.2275449101799</v>
       </c>
     </row>
@@ -5991,7 +6079,7 @@
         <v>434718</v>
       </c>
       <c r="M105" s="1">
-        <f>D105/I105</f>
+        <f t="shared" si="1"/>
         <v>6815.9688412852965</v>
       </c>
     </row>
@@ -6033,7 +6121,7 @@
         <v>489265</v>
       </c>
       <c r="M106" s="1">
-        <f>D106/I106</f>
+        <f t="shared" si="1"/>
         <v>6810.4426787741204</v>
       </c>
     </row>
@@ -6075,7 +6163,7 @@
         <v>465629</v>
       </c>
       <c r="M107" s="1">
-        <f>D107/I107</f>
+        <f t="shared" si="1"/>
         <v>6766.3817663817663</v>
       </c>
     </row>
@@ -6117,7 +6205,7 @@
         <v>425626</v>
       </c>
       <c r="M108" s="1">
-        <f>D108/I108</f>
+        <f t="shared" si="1"/>
         <v>6711.4093959731545</v>
       </c>
     </row>
@@ -6159,7 +6247,7 @@
         <v>461325</v>
       </c>
       <c r="M109" s="1">
-        <f>D109/I109</f>
+        <f t="shared" si="1"/>
         <v>6698.9507667473772</v>
       </c>
     </row>
@@ -6201,7 +6289,7 @@
         <v>451584</v>
       </c>
       <c r="M110" s="1">
-        <f>D110/I110</f>
+        <f t="shared" si="1"/>
         <v>6666.666666666667</v>
       </c>
     </row>
@@ -6243,7 +6331,7 @@
         <v>519322</v>
       </c>
       <c r="M111" s="1">
-        <f>D111/I111</f>
+        <f t="shared" si="1"/>
         <v>6643.356643356643</v>
       </c>
     </row>
@@ -6285,7 +6373,7 @@
         <v>434671</v>
       </c>
       <c r="M112" s="1">
-        <f>D112/I112</f>
+        <f t="shared" si="1"/>
         <v>6635.0710900473932</v>
       </c>
     </row>
@@ -6327,7 +6415,7 @@
         <v>450212</v>
       </c>
       <c r="M113" s="1">
-        <f>D113/I113</f>
+        <f t="shared" si="1"/>
         <v>6478.2096584216724</v>
       </c>
     </row>
@@ -6369,7 +6457,7 @@
         <v>218596</v>
       </c>
       <c r="M114" s="1">
-        <f>D114/I114</f>
+        <f t="shared" si="1"/>
         <v>6472.4919093851131</v>
       </c>
     </row>
@@ -6411,7 +6499,7 @@
         <v>593423</v>
       </c>
       <c r="M115" s="1">
-        <f>D115/I115</f>
+        <f t="shared" si="1"/>
         <v>6468.5314685314688</v>
       </c>
     </row>
@@ -6453,7 +6541,7 @@
         <v>407845</v>
       </c>
       <c r="M116" s="1">
-        <f>D116/I116</f>
+        <f t="shared" si="1"/>
         <v>6363.636363636364</v>
       </c>
     </row>
@@ -6495,7 +6583,7 @@
         <v>452657</v>
       </c>
       <c r="M117" s="1">
-        <f>D117/I117</f>
+        <f t="shared" si="1"/>
         <v>6279.4348508634221</v>
       </c>
     </row>
@@ -6537,7 +6625,7 @@
         <v>234194</v>
       </c>
       <c r="M118" s="1">
-        <f>D118/I118</f>
+        <f t="shared" si="1"/>
         <v>6092.4369747899163</v>
       </c>
     </row>
@@ -6579,7 +6667,7 @@
         <v>502748</v>
       </c>
       <c r="M119" s="1">
-        <f>D119/I119</f>
+        <f t="shared" si="1"/>
         <v>6068.2352941176468</v>
       </c>
     </row>
@@ -6621,7 +6709,7 @@
         <v>465657</v>
       </c>
       <c r="M120" s="1">
-        <f>D120/I120</f>
+        <f t="shared" si="1"/>
         <v>6060.606060606061</v>
       </c>
     </row>
@@ -6663,7 +6751,7 @@
         <v>502032</v>
       </c>
       <c r="M121" s="1">
-        <f>D121/I121</f>
+        <f t="shared" si="1"/>
         <v>6015.0375939849628</v>
       </c>
     </row>
@@ -6705,7 +6793,7 @@
         <v>407819</v>
       </c>
       <c r="M122" s="1">
-        <f>D122/I122</f>
+        <f t="shared" si="1"/>
         <v>5902.1922428330527</v>
       </c>
     </row>
@@ -6747,7 +6835,7 @@
         <v>279571</v>
       </c>
       <c r="M123" s="1">
-        <f>D123/I123</f>
+        <f t="shared" si="1"/>
         <v>5892.2558922558919</v>
       </c>
     </row>
@@ -6789,7 +6877,7 @@
         <v>456034</v>
       </c>
       <c r="M124" s="1">
-        <f>D124/I124</f>
+        <f t="shared" si="1"/>
         <v>5829.3978748524205</v>
       </c>
     </row>
@@ -6831,7 +6919,7 @@
         <v>445163</v>
       </c>
       <c r="M125" s="1">
-        <f>D125/I125</f>
+        <f t="shared" si="1"/>
         <v>5794.701986754967</v>
       </c>
     </row>
@@ -6873,7 +6961,7 @@
         <v>475138</v>
       </c>
       <c r="M126" s="1">
-        <f>D126/I126</f>
+        <f t="shared" si="1"/>
         <v>5757.7777777777774</v>
       </c>
     </row>
@@ -6915,7 +7003,7 @@
         <v>459429</v>
       </c>
       <c r="M127" s="1">
-        <f>D127/I127</f>
+        <f t="shared" si="1"/>
         <v>5725.8064516129034</v>
       </c>
     </row>
@@ -6957,7 +7045,7 @@
         <v>431162</v>
       </c>
       <c r="M128" s="1">
-        <f>D128/I128</f>
+        <f t="shared" si="1"/>
         <v>5714.2857142857147</v>
       </c>
     </row>
@@ -6999,7 +7087,7 @@
         <v>433586</v>
       </c>
       <c r="M129" s="1">
-        <f>D129/I129</f>
+        <f t="shared" si="1"/>
         <v>5696.4343991179712</v>
       </c>
     </row>
@@ -7041,7 +7129,7 @@
         <v>444857</v>
       </c>
       <c r="M130" s="1">
-        <f>D130/I130</f>
+        <f t="shared" ref="M130:M193" si="2">D130/I130</f>
         <v>5646.5273856578206</v>
       </c>
     </row>
@@ -7083,7 +7171,7 @@
         <v>435400</v>
       </c>
       <c r="M131" s="1">
-        <f>D131/I131</f>
+        <f t="shared" si="2"/>
         <v>5617.9775280898875</v>
       </c>
     </row>
@@ -7125,7 +7213,7 @@
         <v>450282</v>
       </c>
       <c r="M132" s="1">
-        <f>D132/I132</f>
+        <f t="shared" si="2"/>
         <v>5575.5395683453235</v>
       </c>
     </row>
@@ -7167,7 +7255,7 @@
         <v>433579</v>
       </c>
       <c r="M133" s="1">
-        <f>D133/I133</f>
+        <f t="shared" si="2"/>
         <v>5397.5325565455796</v>
       </c>
     </row>
@@ -7209,7 +7297,7 @@
         <v>519455</v>
       </c>
       <c r="M134" s="1">
-        <f>D134/I134</f>
+        <f t="shared" si="2"/>
         <v>5317.434740573638</v>
       </c>
     </row>
@@ -7251,7 +7339,7 @@
         <v>488984</v>
       </c>
       <c r="M135" s="1">
-        <f>D135/I135</f>
+        <f t="shared" si="2"/>
         <v>5278.0930760499432</v>
       </c>
     </row>
@@ -7293,7 +7381,7 @@
         <v>501925</v>
       </c>
       <c r="M136" s="1">
-        <f>D136/I136</f>
+        <f t="shared" si="2"/>
         <v>5271.0843373493972</v>
       </c>
     </row>
@@ -7335,7 +7423,7 @@
         <v>446899</v>
       </c>
       <c r="M137" s="1">
-        <f>D137/I137</f>
+        <f t="shared" si="2"/>
         <v>5241.0901467505237</v>
       </c>
     </row>
@@ -7377,7 +7465,7 @@
         <v>502009</v>
       </c>
       <c r="M138" s="1">
-        <f>D138/I138</f>
+        <f t="shared" si="2"/>
         <v>5210.6430155210646</v>
       </c>
     </row>
@@ -7419,7 +7507,7 @@
         <v>407908</v>
       </c>
       <c r="M139" s="1">
-        <f>D139/I139</f>
+        <f t="shared" si="2"/>
         <v>5186.7219917012444</v>
       </c>
     </row>
@@ -7461,7 +7549,7 @@
         <v>408241</v>
       </c>
       <c r="M140" s="1">
-        <f>D140/I140</f>
+        <f t="shared" si="2"/>
         <v>5169.4428489373922</v>
       </c>
     </row>
@@ -7503,7 +7591,7 @@
         <v>453344</v>
       </c>
       <c r="M141" s="1">
-        <f>D141/I141</f>
+        <f t="shared" si="2"/>
         <v>5165.2892561983472</v>
       </c>
     </row>
@@ -7545,7 +7633,7 @@
         <v>592665</v>
       </c>
       <c r="M142" s="1">
-        <f>D142/I142</f>
+        <f t="shared" si="2"/>
         <v>5110.0628930817611</v>
       </c>
     </row>
@@ -7587,7 +7675,7 @@
         <v>453286</v>
       </c>
       <c r="M143" s="1">
-        <f>D143/I143</f>
+        <f t="shared" si="2"/>
         <v>5103.5596903840433</v>
       </c>
     </row>
@@ -7629,7 +7717,7 @@
         <v>490063</v>
       </c>
       <c r="M144" s="1">
-        <f>D144/I144</f>
+        <f t="shared" si="2"/>
         <v>5102.1412452987879</v>
       </c>
     </row>
@@ -7671,7 +7759,7 @@
         <v>407822</v>
       </c>
       <c r="M145" s="1">
-        <f>D145/I145</f>
+        <f t="shared" si="2"/>
         <v>5083.3672224481497</v>
       </c>
     </row>
@@ -7713,7 +7801,7 @@
         <v>448802</v>
       </c>
       <c r="M146" s="1">
-        <f>D146/I146</f>
+        <f t="shared" si="2"/>
         <v>5048.4652665589665</v>
       </c>
     </row>
@@ -7755,7 +7843,7 @@
         <v>453343</v>
       </c>
       <c r="M147" s="1">
-        <f>D147/I147</f>
+        <f t="shared" si="2"/>
         <v>4963.2352941176468</v>
       </c>
     </row>
@@ -7797,7 +7885,7 @@
         <v>491703</v>
       </c>
       <c r="M148" s="1">
-        <f>D148/I148</f>
+        <f t="shared" si="2"/>
         <v>4922.4343675417658</v>
       </c>
     </row>
@@ -7839,7 +7927,7 @@
         <v>502260</v>
       </c>
       <c r="M149" s="1">
-        <f>D149/I149</f>
+        <f t="shared" si="2"/>
         <v>4674.7967479674799</v>
       </c>
     </row>
@@ -7881,7 +7969,7 @@
         <v>460024</v>
       </c>
       <c r="M150" s="1">
-        <f>D150/I150</f>
+        <f t="shared" si="2"/>
         <v>4592.422502870264</v>
       </c>
     </row>
@@ -7923,7 +8011,7 @@
         <v>519144</v>
       </c>
       <c r="M151" s="1">
-        <f>D151/I151</f>
+        <f t="shared" si="2"/>
         <v>4555.3935860058309</v>
       </c>
     </row>
@@ -7965,7 +8053,7 @@
         <v>461872</v>
       </c>
       <c r="M152" s="1">
-        <f>D152/I152</f>
+        <f t="shared" si="2"/>
         <v>4545.454545454545</v>
       </c>
     </row>
@@ -8007,7 +8095,7 @@
         <v>431148</v>
       </c>
       <c r="M153" s="1">
-        <f>D153/I153</f>
+        <f t="shared" si="2"/>
         <v>4420.2652159129548</v>
       </c>
     </row>
@@ -8049,7 +8137,7 @@
         <v>346798</v>
       </c>
       <c r="M154" s="1">
-        <f>D154/I154</f>
+        <f t="shared" si="2"/>
         <v>4323.8993710691821</v>
       </c>
     </row>
@@ -8091,7 +8179,7 @@
         <v>518703</v>
       </c>
       <c r="M155" s="1">
-        <f>D155/I155</f>
+        <f t="shared" si="2"/>
         <v>4318.9368770764122</v>
       </c>
     </row>
@@ -8133,7 +8221,7 @@
         <v>435043</v>
       </c>
       <c r="M156" s="1">
-        <f>D156/I156</f>
+        <f t="shared" si="2"/>
         <v>4273.5042735042734</v>
       </c>
     </row>
@@ -8175,7 +8263,7 @@
         <v>408061</v>
       </c>
       <c r="M157" s="1">
-        <f>D157/I157</f>
+        <f t="shared" si="2"/>
         <v>4227.0531400966183</v>
       </c>
     </row>
@@ -8217,7 +8305,7 @@
         <v>519240</v>
       </c>
       <c r="M158" s="1">
-        <f>D158/I158</f>
+        <f t="shared" si="2"/>
         <v>4173.913043478261</v>
       </c>
     </row>
@@ -8259,7 +8347,7 @@
         <v>444436</v>
       </c>
       <c r="M159" s="1">
-        <f>D159/I159</f>
+        <f t="shared" si="2"/>
         <v>4098.3606557377052</v>
       </c>
     </row>
@@ -8301,7 +8389,7 @@
         <v>430589</v>
       </c>
       <c r="M160" s="1">
-        <f>D160/I160</f>
+        <f t="shared" si="2"/>
         <v>4092.769440654843</v>
       </c>
     </row>
@@ -8343,7 +8431,7 @@
         <v>461833</v>
       </c>
       <c r="M161" s="1">
-        <f>D161/I161</f>
+        <f t="shared" si="2"/>
         <v>4079.8226164079824</v>
       </c>
     </row>
@@ -8385,7 +8473,7 @@
         <v>112526</v>
       </c>
       <c r="M162" s="1">
-        <f>D162/I162</f>
+        <f t="shared" si="2"/>
         <v>4065.040650406504</v>
       </c>
     </row>
@@ -8427,7 +8515,7 @@
         <v>115629</v>
       </c>
       <c r="M163" s="1">
-        <f>D163/I163</f>
+        <f t="shared" si="2"/>
         <v>4039.4973070017954</v>
       </c>
     </row>
@@ -8469,7 +8557,7 @@
         <v>451596</v>
       </c>
       <c r="M164" s="1">
-        <f>D164/I164</f>
+        <f t="shared" si="2"/>
         <v>4029.7582145071297</v>
       </c>
     </row>
@@ -8511,7 +8599,7 @@
         <v>450203</v>
       </c>
       <c r="M165" s="1">
-        <f>D165/I165</f>
+        <f t="shared" si="2"/>
         <v>4010.0250626566417</v>
       </c>
     </row>
@@ -8553,7 +8641,7 @@
         <v>503285</v>
       </c>
       <c r="M166" s="1">
-        <f>D166/I166</f>
+        <f t="shared" si="2"/>
         <v>4001.883239171375</v>
       </c>
     </row>
@@ -8595,7 +8683,7 @@
         <v>434538</v>
       </c>
       <c r="M167" s="1">
-        <f>D167/I167</f>
+        <f t="shared" si="2"/>
         <v>3911.0512906469999</v>
       </c>
     </row>
@@ -8637,7 +8725,7 @@
         <v>434622</v>
       </c>
       <c r="M168" s="1">
-        <f>D168/I168</f>
+        <f t="shared" si="2"/>
         <v>3896.4385620915032</v>
       </c>
     </row>
@@ -8679,7 +8767,7 @@
         <v>451085</v>
       </c>
       <c r="M169" s="1">
-        <f>D169/I169</f>
+        <f t="shared" si="2"/>
         <v>3841.5366146458582</v>
       </c>
     </row>
@@ -8721,7 +8809,7 @@
         <v>461829</v>
       </c>
       <c r="M170" s="1">
-        <f>D170/I170</f>
+        <f t="shared" si="2"/>
         <v>3766.5422463522227</v>
       </c>
     </row>
@@ -8763,7 +8851,7 @@
         <v>547874</v>
       </c>
       <c r="M171" s="1">
-        <f>D171/I171</f>
+        <f t="shared" si="2"/>
         <v>3747.3233404710923</v>
       </c>
     </row>
@@ -8805,7 +8893,7 @@
         <v>474463</v>
       </c>
       <c r="M172" s="1">
-        <f>D172/I172</f>
+        <f t="shared" si="2"/>
         <v>3681.8851251840942</v>
       </c>
     </row>
@@ -8847,7 +8935,7 @@
         <v>285079</v>
       </c>
       <c r="M173" s="1">
-        <f>D173/I173</f>
+        <f t="shared" si="2"/>
         <v>3676.4705882352941</v>
       </c>
     </row>
@@ -8889,7 +8977,7 @@
         <v>425386</v>
       </c>
       <c r="M174" s="1">
-        <f>D174/I174</f>
+        <f t="shared" si="2"/>
         <v>3636.3636363636365</v>
       </c>
     </row>
@@ -8931,7 +9019,7 @@
         <v>502190</v>
       </c>
       <c r="M175" s="1">
-        <f>D175/I175</f>
+        <f t="shared" si="2"/>
         <v>3549.3827160493829</v>
       </c>
     </row>
@@ -8973,7 +9061,7 @@
         <v>502154</v>
       </c>
       <c r="M176" s="1">
-        <f>D176/I176</f>
+        <f t="shared" si="2"/>
         <v>3539.8230088495575</v>
       </c>
     </row>
@@ -9015,7 +9103,7 @@
         <v>518875</v>
       </c>
       <c r="M177" s="1">
-        <f>D177/I177</f>
+        <f t="shared" si="2"/>
         <v>3504.3263288009889</v>
       </c>
     </row>
@@ -9057,7 +9145,7 @@
         <v>488846</v>
       </c>
       <c r="M178" s="1">
-        <f>D178/I178</f>
+        <f t="shared" si="2"/>
         <v>3465.9820282413352</v>
       </c>
     </row>
@@ -9099,7 +9187,7 @@
         <v>429717</v>
       </c>
       <c r="M179" s="1">
-        <f>D179/I179</f>
+        <f t="shared" si="2"/>
         <v>3441.1562284927736</v>
       </c>
     </row>
@@ -9141,7 +9229,7 @@
         <v>424144</v>
       </c>
       <c r="M180" s="1">
-        <f>D180/I180</f>
+        <f t="shared" si="2"/>
         <v>3415.3005464480875</v>
       </c>
     </row>
@@ -9183,7 +9271,7 @@
         <v>456696</v>
       </c>
       <c r="M181" s="1">
-        <f>D181/I181</f>
+        <f t="shared" si="2"/>
         <v>3407.1550255536627</v>
       </c>
     </row>
@@ -9225,7 +9313,7 @@
         <v>150359</v>
       </c>
       <c r="M182" s="1">
-        <f>D182/I182</f>
+        <f t="shared" si="2"/>
         <v>3400</v>
       </c>
     </row>
@@ -9267,7 +9355,7 @@
         <v>453178</v>
       </c>
       <c r="M183" s="1">
-        <f>D183/I183</f>
+        <f t="shared" si="2"/>
         <v>3383.7169357609068</v>
       </c>
     </row>
@@ -9309,7 +9397,7 @@
         <v>475243</v>
       </c>
       <c r="M184" s="1">
-        <f>D184/I184</f>
+        <f t="shared" si="2"/>
         <v>3309.080325960419</v>
       </c>
     </row>
@@ -9351,7 +9439,7 @@
         <v>607968</v>
       </c>
       <c r="M185" s="1">
-        <f>D185/I185</f>
+        <f t="shared" si="2"/>
         <v>3295.4545454545455</v>
       </c>
     </row>
@@ -9393,7 +9481,7 @@
         <v>434628</v>
       </c>
       <c r="M186" s="1">
-        <f>D186/I186</f>
+        <f t="shared" si="2"/>
         <v>3271.5376226826606</v>
       </c>
     </row>
@@ -9435,7 +9523,7 @@
         <v>502304</v>
       </c>
       <c r="M187" s="1">
-        <f>D187/I187</f>
+        <f t="shared" si="2"/>
         <v>3269.2307692307691</v>
       </c>
     </row>
@@ -9477,7 +9565,7 @@
         <v>543475</v>
       </c>
       <c r="M188" s="1">
-        <f>D188/I188</f>
+        <f t="shared" si="2"/>
         <v>3226.8578878748372</v>
       </c>
     </row>
@@ -9519,7 +9607,7 @@
         <v>448281</v>
       </c>
       <c r="M189" s="1">
-        <f>D189/I189</f>
+        <f t="shared" si="2"/>
         <v>3070.8661417322833</v>
       </c>
     </row>
@@ -9561,7 +9649,7 @@
         <v>456501</v>
       </c>
       <c r="M190" s="1">
-        <f>D190/I190</f>
+        <f t="shared" si="2"/>
         <v>3059.9755201958383</v>
       </c>
     </row>
@@ -9603,7 +9691,7 @@
         <v>446399</v>
       </c>
       <c r="M191" s="1">
-        <f>D191/I191</f>
+        <f t="shared" si="2"/>
         <v>3007.2904009720532</v>
       </c>
     </row>
@@ -9645,7 +9733,7 @@
         <v>448306</v>
       </c>
       <c r="M192" s="1">
-        <f>D192/I192</f>
+        <f t="shared" si="2"/>
         <v>2997.6019184652278</v>
       </c>
     </row>
@@ -9687,7 +9775,7 @@
         <v>449170</v>
       </c>
       <c r="M193" s="1">
-        <f>D193/I193</f>
+        <f t="shared" si="2"/>
         <v>2995.3917050691243</v>
       </c>
     </row>
@@ -9729,7 +9817,7 @@
         <v>572089</v>
       </c>
       <c r="M194" s="1">
-        <f>D194/I194</f>
+        <f t="shared" ref="M194:M257" si="3">D194/I194</f>
         <v>2985.7142857142858</v>
       </c>
     </row>
@@ -9771,7 +9859,7 @@
         <v>542923</v>
       </c>
       <c r="M195" s="1">
-        <f>D195/I195</f>
+        <f t="shared" si="3"/>
         <v>2973.6842105263158</v>
       </c>
     </row>
@@ -9813,7 +9901,7 @@
         <v>592781</v>
       </c>
       <c r="M196" s="1">
-        <f>D196/I196</f>
+        <f t="shared" si="3"/>
         <v>2968.0232558139537</v>
       </c>
     </row>
@@ -9855,7 +9943,7 @@
         <v>446321</v>
       </c>
       <c r="M197" s="1">
-        <f>D197/I197</f>
+        <f t="shared" si="3"/>
         <v>2951.240376390077</v>
       </c>
     </row>
@@ -9897,7 +9985,7 @@
         <v>519043</v>
       </c>
       <c r="M198" s="1">
-        <f>D198/I198</f>
+        <f t="shared" si="3"/>
         <v>2935.6060606060605</v>
       </c>
     </row>
@@ -9939,7 +10027,7 @@
         <v>502188</v>
       </c>
       <c r="M199" s="1">
-        <f>D199/I199</f>
+        <f t="shared" si="3"/>
         <v>2935.0104821802934</v>
       </c>
     </row>
@@ -9981,7 +10069,7 @@
         <v>455374</v>
       </c>
       <c r="M200" s="1">
-        <f>D200/I200</f>
+        <f t="shared" si="3"/>
         <v>2932.82876064333</v>
       </c>
     </row>
@@ -10023,7 +10111,7 @@
         <v>460008</v>
       </c>
       <c r="M201" s="1">
-        <f>D201/I201</f>
+        <f t="shared" si="3"/>
         <v>2896.9849246231156</v>
       </c>
     </row>
@@ -10065,7 +10153,7 @@
         <v>593576</v>
       </c>
       <c r="M202" s="1">
-        <f>D202/I202</f>
+        <f t="shared" si="3"/>
         <v>2863.4361233480176</v>
       </c>
     </row>
@@ -10107,7 +10195,7 @@
         <v>448609</v>
       </c>
       <c r="M203" s="1">
-        <f>D203/I203</f>
+        <f t="shared" si="3"/>
         <v>2813.5990621336459</v>
       </c>
     </row>
@@ -10149,7 +10237,7 @@
         <v>425840</v>
       </c>
       <c r="M204" s="1">
-        <f>D204/I204</f>
+        <f t="shared" si="3"/>
         <v>2798.5074626865671</v>
       </c>
     </row>
@@ -10191,7 +10279,7 @@
         <v>425786</v>
       </c>
       <c r="M205" s="1">
-        <f>D205/I205</f>
+        <f t="shared" si="3"/>
         <v>2662.7218934911243</v>
       </c>
     </row>
@@ -10233,7 +10321,7 @@
         <v>606160</v>
       </c>
       <c r="M206" s="1">
-        <f>D206/I206</f>
+        <f t="shared" si="3"/>
         <v>2661.4583333333335</v>
       </c>
     </row>
@@ -10275,7 +10363,7 @@
         <v>445590</v>
       </c>
       <c r="M207" s="1">
-        <f>D207/I207</f>
+        <f t="shared" si="3"/>
         <v>2652.5198938992044</v>
       </c>
     </row>
@@ -10317,7 +10405,7 @@
         <v>458006</v>
       </c>
       <c r="M208" s="1">
-        <f>D208/I208</f>
+        <f t="shared" si="3"/>
         <v>2650.1766784452298</v>
       </c>
     </row>
@@ -10359,7 +10447,7 @@
         <v>451532</v>
       </c>
       <c r="M209" s="1">
-        <f>D209/I209</f>
+        <f t="shared" si="3"/>
         <v>2604.1666666666665</v>
       </c>
     </row>
@@ -10401,7 +10489,7 @@
         <v>448178</v>
       </c>
       <c r="M210" s="1">
-        <f>D210/I210</f>
+        <f t="shared" si="3"/>
         <v>2598.7972508591065</v>
       </c>
     </row>
@@ -10443,7 +10531,7 @@
         <v>467785</v>
       </c>
       <c r="M211" s="1">
-        <f>D211/I211</f>
+        <f t="shared" si="3"/>
         <v>2577.319587628866</v>
       </c>
     </row>
@@ -10485,7 +10573,7 @@
         <v>469134</v>
       </c>
       <c r="M212" s="1">
-        <f>D212/I212</f>
+        <f t="shared" si="3"/>
         <v>2560.5536332179931</v>
       </c>
     </row>
@@ -10527,7 +10615,7 @@
         <v>452718</v>
       </c>
       <c r="M213" s="1">
-        <f>D213/I213</f>
+        <f t="shared" si="3"/>
         <v>2475.2475247524753</v>
       </c>
     </row>
@@ -10569,7 +10657,7 @@
         <v>491159</v>
       </c>
       <c r="M214" s="1">
-        <f>D214/I214</f>
+        <f t="shared" si="3"/>
         <v>2433.0900243309002</v>
       </c>
     </row>
@@ -10611,7 +10699,7 @@
         <v>446099</v>
       </c>
       <c r="M215" s="1">
-        <f>D215/I215</f>
+        <f t="shared" si="3"/>
         <v>2429.9065420560746</v>
       </c>
     </row>
@@ -10653,7 +10741,7 @@
         <v>467008</v>
       </c>
       <c r="M216" s="1">
-        <f>D216/I216</f>
+        <f t="shared" si="3"/>
         <v>2386.5784499054821</v>
       </c>
     </row>
@@ -10695,7 +10783,7 @@
         <v>445197</v>
       </c>
       <c r="M217" s="1">
-        <f>D217/I217</f>
+        <f t="shared" si="3"/>
         <v>2383.3671399594318</v>
       </c>
     </row>
@@ -10737,7 +10825,7 @@
         <v>457918</v>
       </c>
       <c r="M218" s="1">
-        <f>D218/I218</f>
+        <f t="shared" si="3"/>
         <v>2359.9859105318774</v>
       </c>
     </row>
@@ -10779,7 +10867,7 @@
         <v>547749</v>
       </c>
       <c r="M219" s="1">
-        <f>D219/I219</f>
+        <f t="shared" si="3"/>
         <v>2358.4905660377358</v>
       </c>
     </row>
@@ -10821,7 +10909,7 @@
         <v>518858</v>
       </c>
       <c r="M220" s="1">
-        <f>D220/I220</f>
+        <f t="shared" si="3"/>
         <v>2348.7544483985766</v>
       </c>
     </row>
@@ -10863,7 +10951,7 @@
         <v>592767</v>
       </c>
       <c r="M221" s="1">
-        <f>D221/I221</f>
+        <f t="shared" si="3"/>
         <v>2332.7464788732395</v>
       </c>
     </row>
@@ -10905,7 +10993,7 @@
         <v>621397</v>
       </c>
       <c r="M222" s="1">
-        <f>D222/I222</f>
+        <f t="shared" si="3"/>
         <v>2317.3515981735159</v>
       </c>
     </row>
@@ -10947,7 +11035,7 @@
         <v>430630</v>
       </c>
       <c r="M223" s="1">
-        <f>D223/I223</f>
+        <f t="shared" si="3"/>
         <v>2302.025782688766</v>
       </c>
     </row>
@@ -10989,7 +11077,7 @@
         <v>605359</v>
       </c>
       <c r="M224" s="1">
-        <f>D224/I224</f>
+        <f t="shared" si="3"/>
         <v>2295.9641255605379</v>
       </c>
     </row>
@@ -11031,7 +11119,7 @@
         <v>458681</v>
       </c>
       <c r="M225" s="1">
-        <f>D225/I225</f>
+        <f t="shared" si="3"/>
         <v>2292.8267278087128</v>
       </c>
     </row>
@@ -11073,7 +11161,7 @@
         <v>450172</v>
       </c>
       <c r="M226" s="1">
-        <f>D226/I226</f>
+        <f t="shared" si="3"/>
         <v>2274.1055184960583</v>
       </c>
     </row>
@@ -11115,7 +11203,7 @@
         <v>445612</v>
       </c>
       <c r="M227" s="1">
-        <f>D227/I227</f>
+        <f t="shared" si="3"/>
         <v>2228.5251215559156</v>
       </c>
     </row>
@@ -11157,7 +11245,7 @@
         <v>542669</v>
       </c>
       <c r="M228" s="1">
-        <f>D228/I228</f>
+        <f t="shared" si="3"/>
         <v>2177.3504273504273</v>
       </c>
     </row>
@@ -11199,7 +11287,7 @@
         <v>467100</v>
       </c>
       <c r="M229" s="1">
-        <f>D229/I229</f>
+        <f t="shared" si="3"/>
         <v>2158.2733812949641</v>
       </c>
     </row>
@@ -11241,7 +11329,7 @@
         <v>453646</v>
       </c>
       <c r="M230" s="1">
-        <f>D230/I230</f>
+        <f t="shared" si="3"/>
         <v>2157.4973031283712</v>
       </c>
     </row>
@@ -11283,7 +11371,7 @@
         <v>450665</v>
       </c>
       <c r="M231" s="1">
-        <f>D231/I231</f>
+        <f t="shared" si="3"/>
         <v>2157.4973031283712</v>
       </c>
     </row>
@@ -11325,7 +11413,7 @@
         <v>543607</v>
       </c>
       <c r="M232" s="1">
-        <f>D232/I232</f>
+        <f t="shared" si="3"/>
         <v>2144.3514644351462</v>
       </c>
     </row>
@@ -11367,7 +11455,7 @@
         <v>474699</v>
       </c>
       <c r="M233" s="1">
-        <f>D233/I233</f>
+        <f t="shared" si="3"/>
         <v>2143.4820647419074</v>
       </c>
     </row>
@@ -11409,7 +11497,7 @@
         <v>504379</v>
       </c>
       <c r="M234" s="1">
-        <f>D234/I234</f>
+        <f t="shared" si="3"/>
         <v>2123.7303785780241</v>
       </c>
     </row>
@@ -11451,7 +11539,7 @@
         <v>457117</v>
       </c>
       <c r="M235" s="1">
-        <f>D235/I235</f>
+        <f t="shared" si="3"/>
         <v>2116.4021164021165</v>
       </c>
     </row>
@@ -11493,7 +11581,7 @@
         <v>518516</v>
       </c>
       <c r="M236" s="1">
-        <f>D236/I236</f>
+        <f t="shared" si="3"/>
         <v>2088.3653381642512</v>
       </c>
     </row>
@@ -11535,7 +11623,7 @@
         <v>460059</v>
       </c>
       <c r="M237" s="1">
-        <f>D237/I237</f>
+        <f t="shared" si="3"/>
         <v>2065.3398422831392</v>
       </c>
     </row>
@@ -11577,7 +11665,7 @@
         <v>519166</v>
       </c>
       <c r="M238" s="1">
-        <f>D238/I238</f>
+        <f t="shared" si="3"/>
         <v>2049.800796812749</v>
       </c>
     </row>
@@ -11619,7 +11707,7 @@
         <v>444520</v>
       </c>
       <c r="M239" s="1">
-        <f>D239/I239</f>
+        <f t="shared" si="3"/>
         <v>1943.6345966958211</v>
       </c>
     </row>
@@ -11661,7 +11749,7 @@
         <v>150302</v>
       </c>
       <c r="M240" s="1">
-        <f>D240/I240</f>
+        <f t="shared" si="3"/>
         <v>1915.7088122605364</v>
       </c>
     </row>
@@ -11703,7 +11791,7 @@
         <v>433589</v>
       </c>
       <c r="M241" s="1">
-        <f>D241/I241</f>
+        <f t="shared" si="3"/>
         <v>1885.0987432675045</v>
       </c>
     </row>
@@ -11745,7 +11833,7 @@
         <v>445170</v>
       </c>
       <c r="M242" s="1">
-        <f>D242/I242</f>
+        <f t="shared" si="3"/>
         <v>1863.7992831541219</v>
       </c>
     </row>
@@ -11787,7 +11875,7 @@
         <v>501955</v>
       </c>
       <c r="M243" s="1">
-        <f>D243/I243</f>
+        <f t="shared" si="3"/>
         <v>1862.1973929236499</v>
       </c>
     </row>
@@ -11829,7 +11917,7 @@
         <v>641490</v>
       </c>
       <c r="M244" s="1">
-        <f>D244/I244</f>
+        <f t="shared" si="3"/>
         <v>1818.1494661921708</v>
       </c>
     </row>
@@ -11871,7 +11959,7 @@
         <v>430580</v>
       </c>
       <c r="M245" s="1">
-        <f>D245/I245</f>
+        <f t="shared" si="3"/>
         <v>1814.3184047074208</v>
       </c>
     </row>
@@ -11913,7 +12001,7 @@
         <v>519242</v>
       </c>
       <c r="M246" s="1">
-        <f>D246/I246</f>
+        <f t="shared" si="3"/>
         <v>1805.5973517905506</v>
       </c>
     </row>
@@ -11955,7 +12043,7 @@
         <v>421685</v>
       </c>
       <c r="M247" s="1">
-        <f>D247/I247</f>
+        <f t="shared" si="3"/>
         <v>1758.0872011251759</v>
       </c>
     </row>
@@ -11997,7 +12085,7 @@
         <v>612434</v>
       </c>
       <c r="M248" s="1">
-        <f>D248/I248</f>
+        <f t="shared" si="3"/>
         <v>1732.0819112627987</v>
       </c>
     </row>
@@ -12039,7 +12127,7 @@
         <v>285064</v>
       </c>
       <c r="M249" s="1">
-        <f>D249/I249</f>
+        <f t="shared" si="3"/>
         <v>1731.6017316017317</v>
       </c>
     </row>
@@ -12081,7 +12169,7 @@
         <v>476451</v>
       </c>
       <c r="M250" s="1">
-        <f>D250/I250</f>
+        <f t="shared" si="3"/>
         <v>1725.181598062954</v>
       </c>
     </row>
@@ -12123,7 +12211,7 @@
         <v>459987</v>
       </c>
       <c r="M251" s="1">
-        <f>D251/I251</f>
+        <f t="shared" si="3"/>
         <v>1663.4980988593156</v>
       </c>
     </row>
@@ -12165,7 +12253,7 @@
         <v>592879</v>
       </c>
       <c r="M252" s="1">
-        <f>D252/I252</f>
+        <f t="shared" si="3"/>
         <v>1631.8327974276526</v>
       </c>
     </row>
@@ -12207,7 +12295,7 @@
         <v>475115</v>
       </c>
       <c r="M253" s="1">
-        <f>D253/I253</f>
+        <f t="shared" si="3"/>
         <v>1625.8903685351502</v>
       </c>
     </row>
@@ -12249,7 +12337,7 @@
         <v>456379</v>
       </c>
       <c r="M254" s="1">
-        <f>D254/I254</f>
+        <f t="shared" si="3"/>
         <v>1601.6713091922006</v>
       </c>
     </row>
@@ -12291,7 +12379,7 @@
         <v>458708</v>
       </c>
       <c r="M255" s="1">
-        <f>D255/I255</f>
+        <f t="shared" si="3"/>
         <v>1580.6111696522655</v>
       </c>
     </row>
@@ -12333,7 +12421,7 @@
         <v>612672</v>
       </c>
       <c r="M256" s="1">
-        <f>D256/I256</f>
+        <f t="shared" si="3"/>
         <v>1578.0730897009967</v>
       </c>
     </row>
@@ -12375,7 +12463,7 @@
         <v>453265</v>
       </c>
       <c r="M257" s="1">
-        <f>D257/I257</f>
+        <f t="shared" si="3"/>
         <v>1568.1003584229391</v>
       </c>
     </row>
@@ -12417,7 +12505,7 @@
         <v>462945</v>
       </c>
       <c r="M258" s="1">
-        <f>D258/I258</f>
+        <f t="shared" ref="M258:M321" si="4">D258/I258</f>
         <v>1549.865229110512</v>
       </c>
     </row>
@@ -12459,7 +12547,7 @@
         <v>462382</v>
       </c>
       <c r="M259" s="1">
-        <f>D259/I259</f>
+        <f t="shared" si="4"/>
         <v>1518.0265654648956</v>
       </c>
     </row>
@@ -12501,7 +12589,7 @@
         <v>543766</v>
       </c>
       <c r="M260" s="1">
-        <f>D260/I260</f>
+        <f t="shared" si="4"/>
         <v>1484.6743295019157</v>
       </c>
     </row>
@@ -12543,7 +12631,7 @@
         <v>452733</v>
       </c>
       <c r="M261" s="1">
-        <f>D261/I261</f>
+        <f t="shared" si="4"/>
         <v>1483.679525222552</v>
       </c>
     </row>
@@ -12585,7 +12673,7 @@
         <v>516969</v>
       </c>
       <c r="M262" s="1">
-        <f>D262/I262</f>
+        <f t="shared" si="4"/>
         <v>1469.2378328741966</v>
       </c>
     </row>
@@ -12627,7 +12715,7 @@
         <v>501957</v>
       </c>
       <c r="M263" s="1">
-        <f>D263/I263</f>
+        <f t="shared" si="4"/>
         <v>1466.1909616038056</v>
       </c>
     </row>
@@ -12669,7 +12757,7 @@
         <v>607309</v>
       </c>
       <c r="M264" s="1">
-        <f>D264/I264</f>
+        <f t="shared" si="4"/>
         <v>1464.0804597701149</v>
       </c>
     </row>
@@ -12711,7 +12799,7 @@
         <v>429783</v>
       </c>
       <c r="M265" s="1">
-        <f>D265/I265</f>
+        <f t="shared" si="4"/>
         <v>1430.615164520744</v>
       </c>
     </row>
@@ -12753,7 +12841,7 @@
         <v>465679</v>
       </c>
       <c r="M266" s="1">
-        <f>D266/I266</f>
+        <f t="shared" si="4"/>
         <v>1426.9021739130435</v>
       </c>
     </row>
@@ -12795,7 +12883,7 @@
         <v>502272</v>
       </c>
       <c r="M267" s="1">
-        <f>D267/I267</f>
+        <f t="shared" si="4"/>
         <v>1395.9390862944163</v>
       </c>
     </row>
@@ -12837,7 +12925,7 @@
         <v>573186</v>
       </c>
       <c r="M268" s="1">
-        <f>D268/I268</f>
+        <f t="shared" si="4"/>
         <v>1379.8927613941019</v>
       </c>
     </row>
@@ -12879,7 +12967,7 @@
         <v>474284</v>
       </c>
       <c r="M269" s="1">
-        <f>D269/I269</f>
+        <f t="shared" si="4"/>
         <v>1360.7427055702917</v>
       </c>
     </row>
@@ -12921,7 +13009,7 @@
         <v>500721</v>
       </c>
       <c r="M270" s="1">
-        <f>D270/I270</f>
+        <f t="shared" si="4"/>
         <v>1355.5269922879177</v>
       </c>
     </row>
@@ -12963,7 +13051,7 @@
         <v>456068</v>
       </c>
       <c r="M271" s="1">
-        <f>D271/I271</f>
+        <f t="shared" si="4"/>
         <v>1342.7634276342762</v>
       </c>
     </row>
@@ -13005,7 +13093,7 @@
         <v>543548</v>
       </c>
       <c r="M272" s="1">
-        <f>D272/I272</f>
+        <f t="shared" si="4"/>
         <v>1342.5253991291727</v>
       </c>
     </row>
@@ -13047,7 +13135,7 @@
         <v>462136</v>
       </c>
       <c r="M273" s="1">
-        <f>D273/I273</f>
+        <f t="shared" si="4"/>
         <v>1338.8259526261586</v>
       </c>
     </row>
@@ -13089,7 +13177,7 @@
         <v>468396</v>
       </c>
       <c r="M274" s="1">
-        <f>D274/I274</f>
+        <f t="shared" si="4"/>
         <v>1338.0909901873326</v>
       </c>
     </row>
@@ -13131,7 +13219,7 @@
         <v>477569</v>
       </c>
       <c r="M275" s="1">
-        <f>D275/I275</f>
+        <f t="shared" si="4"/>
         <v>1323.6714975845412</v>
       </c>
     </row>
@@ -13173,7 +13261,7 @@
         <v>434665</v>
       </c>
       <c r="M276" s="1">
-        <f>D276/I276</f>
+        <f t="shared" si="4"/>
         <v>1323.1738035264484</v>
       </c>
     </row>
@@ -13215,7 +13303,7 @@
         <v>553970</v>
       </c>
       <c r="M277" s="1">
-        <f>D277/I277</f>
+        <f t="shared" si="4"/>
         <v>1321.6145833333333</v>
       </c>
     </row>
@@ -13257,7 +13345,7 @@
         <v>452666</v>
       </c>
       <c r="M278" s="1">
-        <f>D278/I278</f>
+        <f t="shared" si="4"/>
         <v>1312.0899718837863</v>
       </c>
     </row>
@@ -13299,7 +13387,7 @@
         <v>455119</v>
       </c>
       <c r="M279" s="1">
-        <f>D279/I279</f>
+        <f t="shared" si="4"/>
         <v>1306.9693094629156</v>
       </c>
     </row>
@@ -13341,7 +13429,7 @@
         <v>472551</v>
       </c>
       <c r="M280" s="1">
-        <f>D280/I280</f>
+        <f t="shared" si="4"/>
         <v>1305.5222088835535</v>
       </c>
     </row>
@@ -13383,7 +13471,7 @@
         <v>488768</v>
       </c>
       <c r="M281" s="1">
-        <f>D281/I281</f>
+        <f t="shared" si="4"/>
         <v>1302.6696687037634</v>
       </c>
     </row>
@@ -13425,7 +13513,7 @@
         <v>571439</v>
       </c>
       <c r="M282" s="1">
-        <f>D282/I282</f>
+        <f t="shared" si="4"/>
         <v>1288.0710659898477</v>
       </c>
     </row>
@@ -13467,7 +13555,7 @@
         <v>554431</v>
       </c>
       <c r="M283" s="1">
-        <f>D283/I283</f>
+        <f t="shared" si="4"/>
         <v>1276.9423558897242</v>
       </c>
     </row>
@@ -13509,7 +13597,7 @@
         <v>430661</v>
       </c>
       <c r="M284" s="1">
-        <f>D284/I284</f>
+        <f t="shared" si="4"/>
         <v>1268.4989429175475</v>
       </c>
     </row>
@@ -13551,7 +13639,7 @@
         <v>425532</v>
       </c>
       <c r="M285" s="1">
-        <f>D285/I285</f>
+        <f t="shared" si="4"/>
         <v>1263.9029322548029</v>
       </c>
     </row>
@@ -13593,7 +13681,7 @@
         <v>407890</v>
       </c>
       <c r="M286" s="1">
-        <f>D286/I286</f>
+        <f t="shared" si="4"/>
         <v>1257.8616352201259</v>
       </c>
     </row>
@@ -13635,7 +13723,7 @@
         <v>489446</v>
       </c>
       <c r="M287" s="1">
-        <f>D287/I287</f>
+        <f t="shared" si="4"/>
         <v>1256.8627450980391</v>
       </c>
     </row>
@@ -13677,7 +13765,7 @@
         <v>543135</v>
       </c>
       <c r="M288" s="1">
-        <f>D288/I288</f>
+        <f t="shared" si="4"/>
         <v>1250.9476876421531</v>
       </c>
     </row>
@@ -13719,7 +13807,7 @@
         <v>489119</v>
       </c>
       <c r="M289" s="1">
-        <f>D289/I289</f>
+        <f t="shared" si="4"/>
         <v>1147.9855979962429</v>
       </c>
     </row>
@@ -13761,7 +13849,7 @@
         <v>444935</v>
       </c>
       <c r="M290" s="1">
-        <f>D290/I290</f>
+        <f t="shared" si="4"/>
         <v>1129.0393013100436</v>
       </c>
     </row>
@@ -13803,7 +13891,7 @@
         <v>453172</v>
       </c>
       <c r="M291" s="1">
-        <f>D291/I291</f>
+        <f t="shared" si="4"/>
         <v>1112.8364389233955</v>
       </c>
     </row>
@@ -13845,7 +13933,7 @@
         <v>605374</v>
       </c>
       <c r="M292" s="1">
-        <f>D292/I292</f>
+        <f t="shared" si="4"/>
         <v>1098.4848484848485</v>
       </c>
     </row>
@@ -13887,7 +13975,7 @@
         <v>628452</v>
       </c>
       <c r="M293" s="1">
-        <f>D293/I293</f>
+        <f t="shared" si="4"/>
         <v>1094.690293742018</v>
       </c>
     </row>
@@ -13929,7 +14017,7 @@
         <v>502578</v>
       </c>
       <c r="M294" s="1">
-        <f>D294/I294</f>
+        <f t="shared" si="4"/>
         <v>1075.7322175732218</v>
       </c>
     </row>
@@ -13971,7 +14059,7 @@
         <v>453562</v>
       </c>
       <c r="M295" s="1">
-        <f>D295/I295</f>
+        <f t="shared" si="4"/>
         <v>1055.846422338569</v>
       </c>
     </row>
@@ -14013,7 +14101,7 @@
         <v>457744</v>
       </c>
       <c r="M296" s="1">
-        <f>D296/I296</f>
+        <f t="shared" si="4"/>
         <v>1031.7460317460318</v>
       </c>
     </row>
@@ -14055,7 +14143,7 @@
         <v>592329</v>
       </c>
       <c r="M297" s="1">
-        <f>D297/I297</f>
+        <f t="shared" si="4"/>
         <v>1029.4117647058824</v>
       </c>
     </row>
@@ -14097,7 +14185,7 @@
         <v>527048</v>
       </c>
       <c r="M298" s="1">
-        <f>D298/I298</f>
+        <f t="shared" si="4"/>
         <v>1028.80658436214</v>
       </c>
     </row>
@@ -14139,7 +14227,7 @@
         <v>518633</v>
       </c>
       <c r="M299" s="1">
-        <f>D299/I299</f>
+        <f t="shared" si="4"/>
         <v>1027.542372881356</v>
       </c>
     </row>
@@ -14181,7 +14269,7 @@
         <v>592533</v>
       </c>
       <c r="M300" s="1">
-        <f>D300/I300</f>
+        <f t="shared" si="4"/>
         <v>1019.0763052208836</v>
       </c>
     </row>
@@ -14223,7 +14311,7 @@
         <v>543594</v>
       </c>
       <c r="M301" s="1">
-        <f>D301/I301</f>
+        <f t="shared" si="4"/>
         <v>1017.0340681362726</v>
       </c>
     </row>
@@ -14265,7 +14353,7 @@
         <v>572070</v>
       </c>
       <c r="M302" s="1">
-        <f>D302/I302</f>
+        <f t="shared" si="4"/>
         <v>984.61538461538464</v>
       </c>
     </row>
@@ -14307,7 +14395,7 @@
         <v>543746</v>
       </c>
       <c r="M303" s="1">
-        <f>D303/I303</f>
+        <f t="shared" si="4"/>
         <v>967.28971962616822</v>
       </c>
     </row>
@@ -14349,7 +14437,7 @@
         <v>542866</v>
       </c>
       <c r="M304" s="1">
-        <f>D304/I304</f>
+        <f t="shared" si="4"/>
         <v>961.55303030303025</v>
       </c>
     </row>
@@ -14391,7 +14479,7 @@
         <v>571871</v>
       </c>
       <c r="M305" s="1">
-        <f>D305/I305</f>
+        <f t="shared" si="4"/>
         <v>959.03165735567973</v>
       </c>
     </row>
@@ -14433,7 +14521,7 @@
         <v>488674</v>
       </c>
       <c r="M306" s="1">
-        <f>D306/I306</f>
+        <f t="shared" si="4"/>
         <v>954.19847328244271</v>
       </c>
     </row>
@@ -14475,7 +14563,7 @@
         <v>433584</v>
       </c>
       <c r="M307" s="1">
-        <f>D307/I307</f>
+        <f t="shared" si="4"/>
         <v>949.12680334092636</v>
       </c>
     </row>
@@ -14517,7 +14605,7 @@
         <v>425492</v>
       </c>
       <c r="M308" s="1">
-        <f>D308/I308</f>
+        <f t="shared" si="4"/>
         <v>946.54788418708245</v>
       </c>
     </row>
@@ -14559,7 +14647,7 @@
         <v>573046</v>
       </c>
       <c r="M309" s="1">
-        <f>D309/I309</f>
+        <f t="shared" si="4"/>
         <v>927.79783393501805</v>
       </c>
     </row>
@@ -14601,7 +14689,7 @@
         <v>453156</v>
       </c>
       <c r="M310" s="1">
-        <f>D310/I310</f>
+        <f t="shared" si="4"/>
         <v>887.6306620209059</v>
       </c>
     </row>
@@ -14643,7 +14731,7 @@
         <v>541652</v>
       </c>
       <c r="M311" s="1">
-        <f>D311/I311</f>
+        <f t="shared" si="4"/>
         <v>882.35294117647061</v>
       </c>
     </row>
@@ -14685,7 +14773,7 @@
         <v>471911</v>
       </c>
       <c r="M312" s="1">
-        <f>D312/I312</f>
+        <f t="shared" si="4"/>
         <v>841.73568599207783</v>
       </c>
     </row>
@@ -14727,7 +14815,7 @@
         <v>445926</v>
       </c>
       <c r="M313" s="1">
-        <f>D313/I313</f>
+        <f t="shared" si="4"/>
         <v>835.92534992223955</v>
       </c>
     </row>
@@ -14769,7 +14857,7 @@
         <v>501381</v>
       </c>
       <c r="M314" s="1">
-        <f>D314/I314</f>
+        <f t="shared" si="4"/>
         <v>824.17582417582423</v>
       </c>
     </row>
@@ -14811,7 +14899,7 @@
         <v>456776</v>
       </c>
       <c r="M315" s="1">
-        <f>D315/I315</f>
+        <f t="shared" si="4"/>
         <v>817.03125</v>
       </c>
     </row>
@@ -14853,7 +14941,7 @@
         <v>430641</v>
       </c>
       <c r="M316" s="1">
-        <f>D316/I316</f>
+        <f t="shared" si="4"/>
         <v>802.99785867237688</v>
       </c>
     </row>
@@ -14895,7 +14983,7 @@
         <v>501822</v>
       </c>
       <c r="M317" s="1">
-        <f>D317/I317</f>
+        <f t="shared" si="4"/>
         <v>801.38036809815947</v>
       </c>
     </row>
@@ -14937,7 +15025,7 @@
         <v>571561</v>
       </c>
       <c r="M318" s="1">
-        <f>D318/I318</f>
+        <f t="shared" si="4"/>
         <v>789.03903903903904</v>
       </c>
     </row>
@@ -14979,7 +15067,7 @@
         <v>605151</v>
       </c>
       <c r="M319" s="1">
-        <f>D319/I319</f>
+        <f t="shared" si="4"/>
         <v>788.04347826086962</v>
       </c>
     </row>
@@ -15021,7 +15109,7 @@
         <v>519085</v>
       </c>
       <c r="M320" s="1">
-        <f>D320/I320</f>
+        <f t="shared" si="4"/>
         <v>787.48091603053433</v>
       </c>
     </row>
@@ -15063,7 +15151,7 @@
         <v>475479</v>
       </c>
       <c r="M321" s="1">
-        <f>D321/I321</f>
+        <f t="shared" si="4"/>
         <v>753.49838536060281</v>
       </c>
     </row>
@@ -15105,7 +15193,7 @@
         <v>518567</v>
       </c>
       <c r="M322" s="1">
-        <f>D322/I322</f>
+        <f t="shared" ref="M322:M385" si="5">D322/I322</f>
         <v>753.2467532467532</v>
       </c>
     </row>
@@ -15147,7 +15235,7 @@
         <v>571057</v>
       </c>
       <c r="M323" s="1">
-        <f>D323/I323</f>
+        <f t="shared" si="5"/>
         <v>751.10782865583451</v>
       </c>
     </row>
@@ -15189,7 +15277,7 @@
         <v>489294</v>
       </c>
       <c r="M324" s="1">
-        <f>D324/I324</f>
+        <f t="shared" si="5"/>
         <v>748.83720930232562</v>
       </c>
     </row>
@@ -15231,7 +15319,7 @@
         <v>571901</v>
       </c>
       <c r="M325" s="1">
-        <f>D325/I325</f>
+        <f t="shared" si="5"/>
         <v>728.90733056708166</v>
       </c>
     </row>
@@ -15273,7 +15361,7 @@
         <v>548337</v>
       </c>
       <c r="M326" s="1">
-        <f>D326/I326</f>
+        <f t="shared" si="5"/>
         <v>728.12051649928264</v>
       </c>
     </row>
@@ -15315,7 +15403,7 @@
         <v>502327</v>
       </c>
       <c r="M327" s="1">
-        <f>D327/I327</f>
+        <f t="shared" si="5"/>
         <v>724.22517394054398</v>
       </c>
     </row>
@@ -15357,7 +15445,7 @@
         <v>519096</v>
       </c>
       <c r="M328" s="1">
-        <f>D328/I328</f>
+        <f t="shared" si="5"/>
         <v>704.95185694635484</v>
       </c>
     </row>
@@ -15399,7 +15487,7 @@
         <v>518927</v>
       </c>
       <c r="M329" s="1">
-        <f>D329/I329</f>
+        <f t="shared" si="5"/>
         <v>697.99498746867164</v>
       </c>
     </row>
@@ -15441,7 +15529,7 @@
         <v>458584</v>
       </c>
       <c r="M330" s="1">
-        <f>D330/I330</f>
+        <f t="shared" si="5"/>
         <v>696.09164420485172</v>
       </c>
     </row>
@@ -15483,7 +15571,7 @@
         <v>542914</v>
       </c>
       <c r="M331" s="1">
-        <f>D331/I331</f>
+        <f t="shared" si="5"/>
         <v>691.1344137273594</v>
       </c>
     </row>
@@ -15525,7 +15613,7 @@
         <v>543339</v>
       </c>
       <c r="M332" s="1">
-        <f>D332/I332</f>
+        <f t="shared" si="5"/>
         <v>689.65517241379314</v>
       </c>
     </row>
@@ -15567,7 +15655,7 @@
         <v>491646</v>
       </c>
       <c r="M333" s="1">
-        <f>D333/I333</f>
+        <f t="shared" si="5"/>
         <v>682.01193520886613</v>
       </c>
     </row>
@@ -15609,7 +15697,7 @@
         <v>545333</v>
       </c>
       <c r="M334" s="1">
-        <f>D334/I334</f>
+        <f t="shared" si="5"/>
         <v>676.1937957476473</v>
       </c>
     </row>
@@ -15651,7 +15739,7 @@
         <v>502593</v>
       </c>
       <c r="M335" s="1">
-        <f>D335/I335</f>
+        <f t="shared" si="5"/>
         <v>658.22784810126586</v>
       </c>
     </row>
@@ -15693,7 +15781,7 @@
         <v>605228</v>
       </c>
       <c r="M336" s="1">
-        <f>D336/I336</f>
+        <f t="shared" si="5"/>
         <v>656.25</v>
       </c>
     </row>
@@ -15735,7 +15823,7 @@
         <v>501593</v>
       </c>
       <c r="M337" s="1">
-        <f>D337/I337</f>
+        <f t="shared" si="5"/>
         <v>644.76885644768856</v>
       </c>
     </row>
@@ -15777,7 +15865,7 @@
         <v>543144</v>
       </c>
       <c r="M338" s="1">
-        <f>D338/I338</f>
+        <f t="shared" si="5"/>
         <v>639.56310679611647</v>
       </c>
     </row>
@@ -15819,7 +15907,7 @@
         <v>448614</v>
       </c>
       <c r="M339" s="1">
-        <f>D339/I339</f>
+        <f t="shared" si="5"/>
         <v>632.05754614549403</v>
       </c>
     </row>
@@ -15861,7 +15949,7 @@
         <v>474029</v>
       </c>
       <c r="M340" s="1">
-        <f>D340/I340</f>
+        <f t="shared" si="5"/>
         <v>622.03791469194312</v>
       </c>
     </row>
@@ -15903,7 +15991,7 @@
         <v>520980</v>
       </c>
       <c r="M341" s="1">
-        <f>D341/I341</f>
+        <f t="shared" si="5"/>
         <v>616.72683513838751</v>
       </c>
     </row>
@@ -15945,7 +16033,7 @@
         <v>518748</v>
       </c>
       <c r="M342" s="1">
-        <f>D342/I342</f>
+        <f t="shared" si="5"/>
         <v>610.919540229885</v>
       </c>
     </row>
@@ -15987,7 +16075,7 @@
         <v>466948</v>
       </c>
       <c r="M343" s="1">
-        <f>D343/I343</f>
+        <f t="shared" si="5"/>
         <v>608.41983852364478</v>
       </c>
     </row>
@@ -16029,7 +16117,7 @@
         <v>554340</v>
       </c>
       <c r="M344" s="1">
-        <f>D344/I344</f>
+        <f t="shared" si="5"/>
         <v>605.70071258907365</v>
       </c>
     </row>
@@ -16071,7 +16159,7 @@
         <v>451661</v>
       </c>
       <c r="M345" s="1">
-        <f>D345/I345</f>
+        <f t="shared" si="5"/>
         <v>600.81395348837214</v>
       </c>
     </row>
@@ -16113,7 +16201,7 @@
         <v>518468</v>
       </c>
       <c r="M346" s="1">
-        <f>D346/I346</f>
+        <f t="shared" si="5"/>
         <v>589.22363847045187</v>
       </c>
     </row>
@@ -16155,7 +16243,7 @@
         <v>543219</v>
       </c>
       <c r="M347" s="1">
-        <f>D347/I347</f>
+        <f t="shared" si="5"/>
         <v>585.3517877739331</v>
       </c>
     </row>
@@ -16197,7 +16285,7 @@
         <v>543726</v>
       </c>
       <c r="M348" s="1">
-        <f>D348/I348</f>
+        <f t="shared" si="5"/>
         <v>563.12127236580523</v>
       </c>
     </row>
@@ -16239,7 +16327,7 @@
         <v>543359</v>
       </c>
       <c r="M349" s="1">
-        <f>D349/I349</f>
+        <f t="shared" si="5"/>
         <v>556.97550585729505</v>
       </c>
     </row>
@@ -16281,7 +16369,7 @@
         <v>519267</v>
       </c>
       <c r="M350" s="1">
-        <f>D350/I350</f>
+        <f t="shared" si="5"/>
         <v>556.46036916395224</v>
       </c>
     </row>
@@ -16323,7 +16411,7 @@
         <v>595307</v>
       </c>
       <c r="M351" s="1">
-        <f>D351/I351</f>
+        <f t="shared" si="5"/>
         <v>547.52066115702485</v>
       </c>
     </row>
@@ -16365,7 +16453,7 @@
         <v>458677</v>
       </c>
       <c r="M352" s="1">
-        <f>D352/I352</f>
+        <f t="shared" si="5"/>
         <v>530.53435114503816</v>
       </c>
     </row>
@@ -16407,7 +16495,7 @@
         <v>457768</v>
       </c>
       <c r="M353" s="1">
-        <f>D353/I353</f>
+        <f t="shared" si="5"/>
         <v>528.33001988071567</v>
       </c>
     </row>
@@ -16449,7 +16537,7 @@
         <v>543184</v>
       </c>
       <c r="M354" s="1">
-        <f>D354/I354</f>
+        <f t="shared" si="5"/>
         <v>525.64102564102564</v>
       </c>
     </row>
@@ -16491,7 +16579,7 @@
         <v>444468</v>
       </c>
       <c r="M355" s="1">
-        <f>D355/I355</f>
+        <f t="shared" si="5"/>
         <v>504.17052826691383</v>
       </c>
     </row>
@@ -16533,7 +16621,7 @@
         <v>501625</v>
       </c>
       <c r="M356" s="1">
-        <f>D356/I356</f>
+        <f t="shared" si="5"/>
         <v>501.97044334975368</v>
       </c>
     </row>
@@ -16575,7 +16663,7 @@
         <v>521230</v>
       </c>
       <c r="M357" s="1">
-        <f>D357/I357</f>
+        <f t="shared" si="5"/>
         <v>501.35396518375239</v>
       </c>
     </row>
@@ -16617,7 +16705,7 @@
         <v>471822</v>
       </c>
       <c r="M358" s="1">
-        <f>D358/I358</f>
+        <f t="shared" si="5"/>
         <v>498.046875</v>
       </c>
     </row>
@@ -16659,7 +16747,7 @@
         <v>595014</v>
       </c>
       <c r="M359" s="1">
-        <f>D359/I359</f>
+        <f t="shared" si="5"/>
         <v>497.86407766990294</v>
       </c>
     </row>
@@ -16701,7 +16789,7 @@
         <v>605309</v>
       </c>
       <c r="M360" s="1">
-        <f>D360/I360</f>
+        <f t="shared" si="5"/>
         <v>492.24054316197868</v>
       </c>
     </row>
@@ -16743,7 +16831,7 @@
         <v>596057</v>
       </c>
       <c r="M361" s="1">
-        <f>D361/I361</f>
+        <f t="shared" si="5"/>
         <v>491.49758454106279</v>
       </c>
     </row>
@@ -16785,7 +16873,7 @@
         <v>502004</v>
       </c>
       <c r="M362" s="1">
-        <f>D362/I362</f>
+        <f t="shared" si="5"/>
         <v>491.45299145299145</v>
       </c>
     </row>
@@ -16827,7 +16915,7 @@
         <v>518617</v>
       </c>
       <c r="M363" s="1">
-        <f>D363/I363</f>
+        <f t="shared" si="5"/>
         <v>488.14949863263445</v>
       </c>
     </row>
@@ -16869,7 +16957,7 @@
         <v>573109</v>
       </c>
       <c r="M364" s="1">
-        <f>D364/I364</f>
+        <f t="shared" si="5"/>
         <v>487.58049678012878</v>
       </c>
     </row>
@@ -16911,7 +16999,7 @@
         <v>592102</v>
       </c>
       <c r="M365" s="1">
-        <f>D365/I365</f>
+        <f t="shared" si="5"/>
         <v>480.3336259877085</v>
       </c>
     </row>
@@ -16953,7 +17041,7 @@
         <v>519293</v>
       </c>
       <c r="M366" s="1">
-        <f>D366/I366</f>
+        <f t="shared" si="5"/>
         <v>480.3186504217432</v>
       </c>
     </row>
@@ -16995,7 +17083,7 @@
         <v>502026</v>
       </c>
       <c r="M367" s="1">
-        <f>D367/I367</f>
+        <f t="shared" si="5"/>
         <v>478.89305816135084</v>
       </c>
     </row>
@@ -17037,7 +17125,7 @@
         <v>543331</v>
       </c>
       <c r="M368" s="1">
-        <f>D368/I368</f>
+        <f t="shared" si="5"/>
         <v>478.10545129579981</v>
       </c>
     </row>
@@ -17079,7 +17167,7 @@
         <v>605476</v>
       </c>
       <c r="M369" s="1">
-        <f>D369/I369</f>
+        <f t="shared" si="5"/>
         <v>477.05992509363296</v>
       </c>
     </row>
@@ -17121,7 +17209,7 @@
         <v>543242</v>
       </c>
       <c r="M370" s="1">
-        <f>D370/I370</f>
+        <f t="shared" si="5"/>
         <v>473.85620915032678</v>
       </c>
     </row>
@@ -17163,7 +17251,7 @@
         <v>572020</v>
       </c>
       <c r="M371" s="1">
-        <f>D371/I371</f>
+        <f t="shared" si="5"/>
         <v>467.14671467146712</v>
       </c>
     </row>
@@ -17205,7 +17293,7 @@
         <v>542882</v>
       </c>
       <c r="M372" s="1">
-        <f>D372/I372</f>
+        <f t="shared" si="5"/>
         <v>466.45220588235293</v>
       </c>
     </row>
@@ -17247,7 +17335,7 @@
         <v>532077</v>
       </c>
       <c r="M373" s="1">
-        <f>D373/I373</f>
+        <f t="shared" si="5"/>
         <v>465.16956920256644</v>
       </c>
     </row>
@@ -17289,7 +17377,7 @@
         <v>491708</v>
       </c>
       <c r="M374" s="1">
-        <f>D374/I374</f>
+        <f t="shared" si="5"/>
         <v>461.91756272401432</v>
       </c>
     </row>
@@ -17331,7 +17419,7 @@
         <v>543054</v>
       </c>
       <c r="M375" s="1">
-        <f>D375/I375</f>
+        <f t="shared" si="5"/>
         <v>461.53846153846155</v>
       </c>
     </row>
@@ -17373,7 +17461,7 @@
         <v>544993</v>
       </c>
       <c r="M376" s="1">
-        <f>D376/I376</f>
+        <f t="shared" si="5"/>
         <v>460.54298642533939</v>
       </c>
     </row>
@@ -17415,7 +17503,7 @@
         <v>592741</v>
       </c>
       <c r="M377" s="1">
-        <f>D377/I377</f>
+        <f t="shared" si="5"/>
         <v>459.7072072072072</v>
       </c>
     </row>
@@ -17457,7 +17545,7 @@
         <v>473879</v>
       </c>
       <c r="M378" s="1">
-        <f>D378/I378</f>
+        <f t="shared" si="5"/>
         <v>458.86075949367091</v>
       </c>
     </row>
@@ -17499,7 +17587,7 @@
         <v>502202</v>
       </c>
       <c r="M379" s="1">
-        <f>D379/I379</f>
+        <f t="shared" si="5"/>
         <v>457.36842105263156</v>
       </c>
     </row>
@@ -17541,7 +17629,7 @@
         <v>501789</v>
       </c>
       <c r="M380" s="1">
-        <f>D380/I380</f>
+        <f t="shared" si="5"/>
         <v>455.98935226264416</v>
       </c>
     </row>
@@ -17583,7 +17671,7 @@
         <v>548357</v>
       </c>
       <c r="M381" s="1">
-        <f>D381/I381</f>
+        <f t="shared" si="5"/>
         <v>454.91071428571428</v>
       </c>
     </row>
@@ -17625,7 +17713,7 @@
         <v>544727</v>
       </c>
       <c r="M382" s="1">
-        <f>D382/I382</f>
+        <f t="shared" si="5"/>
         <v>446.65387894288148</v>
       </c>
     </row>
@@ -17667,7 +17755,7 @@
         <v>474521</v>
       </c>
       <c r="M383" s="1">
-        <f>D383/I383</f>
+        <f t="shared" si="5"/>
         <v>444.56800684345592</v>
       </c>
     </row>
@@ -17709,7 +17797,7 @@
         <v>572096</v>
       </c>
       <c r="M384" s="1">
-        <f>D384/I384</f>
+        <f t="shared" si="5"/>
         <v>443.98340248962654</v>
       </c>
     </row>
@@ -17751,7 +17839,7 @@
         <v>472610</v>
       </c>
       <c r="M385" s="1">
-        <f>D385/I385</f>
+        <f t="shared" si="5"/>
         <v>441.45706851691239</v>
       </c>
     </row>
@@ -17793,7 +17881,7 @@
         <v>571704</v>
       </c>
       <c r="M386" s="1">
-        <f>D386/I386</f>
+        <f t="shared" ref="M386:M444" si="6">D386/I386</f>
         <v>437.97468354430379</v>
       </c>
     </row>
@@ -17835,7 +17923,7 @@
         <v>453214</v>
       </c>
       <c r="M387" s="1">
-        <f>D387/I387</f>
+        <f t="shared" si="6"/>
         <v>433.3616298811545</v>
       </c>
     </row>
@@ -17877,7 +17965,7 @@
         <v>605177</v>
       </c>
       <c r="M388" s="1">
-        <f>D388/I388</f>
+        <f t="shared" si="6"/>
         <v>431.54761904761904</v>
       </c>
     </row>
@@ -17919,7 +18007,7 @@
         <v>502083</v>
       </c>
       <c r="M389" s="1">
-        <f>D389/I389</f>
+        <f t="shared" si="6"/>
         <v>425.85924713584291</v>
       </c>
     </row>
@@ -17961,7 +18049,7 @@
         <v>571578</v>
       </c>
       <c r="M390" s="1">
-        <f>D390/I390</f>
+        <f t="shared" si="6"/>
         <v>417.86283891547049</v>
       </c>
     </row>
@@ -18003,7 +18091,7 @@
         <v>571527</v>
       </c>
       <c r="M391" s="1">
-        <f>D391/I391</f>
+        <f t="shared" si="6"/>
         <v>416.66666666666669</v>
       </c>
     </row>
@@ -18045,7 +18133,7 @@
         <v>517414</v>
       </c>
       <c r="M392" s="1">
-        <f>D392/I392</f>
+        <f t="shared" si="6"/>
         <v>410.61670569867289</v>
       </c>
     </row>
@@ -18087,7 +18175,7 @@
         <v>543779</v>
       </c>
       <c r="M393" s="1">
-        <f>D393/I393</f>
+        <f t="shared" si="6"/>
         <v>404.05616224648986</v>
       </c>
     </row>
@@ -18129,7 +18217,7 @@
         <v>542960</v>
       </c>
       <c r="M394" s="1">
-        <f>D394/I394</f>
+        <f t="shared" si="6"/>
         <v>400.15302218821728</v>
       </c>
     </row>
@@ -18171,7 +18259,7 @@
         <v>571735</v>
       </c>
       <c r="M395" s="1">
-        <f>D395/I395</f>
+        <f t="shared" si="6"/>
         <v>394.23076923076923</v>
       </c>
     </row>
@@ -18213,7 +18301,7 @@
         <v>572888</v>
       </c>
       <c r="M396" s="1">
-        <f>D396/I396</f>
+        <f t="shared" si="6"/>
         <v>385.47904191616766</v>
       </c>
     </row>
@@ -18255,7 +18343,7 @@
         <v>572750</v>
       </c>
       <c r="M397" s="1">
-        <f>D397/I397</f>
+        <f t="shared" si="6"/>
         <v>375.73746312684364</v>
       </c>
     </row>
@@ -18297,7 +18385,7 @@
         <v>476454</v>
       </c>
       <c r="M398" s="1">
-        <f>D398/I398</f>
+        <f t="shared" si="6"/>
         <v>370.43795620437959</v>
       </c>
     </row>
@@ -18339,7 +18427,7 @@
         <v>518603</v>
       </c>
       <c r="M399" s="1">
-        <f>D399/I399</f>
+        <f t="shared" si="6"/>
         <v>365.39792387543253</v>
       </c>
     </row>
@@ -18381,7 +18469,7 @@
         <v>519141</v>
       </c>
       <c r="M400" s="1">
-        <f>D400/I400</f>
+        <f t="shared" si="6"/>
         <v>358.87656033287101</v>
       </c>
     </row>
@@ -18423,7 +18511,7 @@
         <v>527054</v>
       </c>
       <c r="M401" s="1">
-        <f>D401/I401</f>
+        <f t="shared" si="6"/>
         <v>356.23389312977099</v>
       </c>
     </row>
@@ -18465,7 +18553,7 @@
         <v>592717</v>
       </c>
       <c r="M402" s="1">
-        <f>D402/I402</f>
+        <f t="shared" si="6"/>
         <v>352.5189786059351</v>
       </c>
     </row>
@@ -18507,7 +18595,7 @@
         <v>432934</v>
       </c>
       <c r="M403" s="1">
-        <f>D403/I403</f>
+        <f t="shared" si="6"/>
         <v>339.87915407854985</v>
       </c>
     </row>
@@ -18549,7 +18637,7 @@
         <v>502042</v>
       </c>
       <c r="M404" s="1">
-        <f>D404/I404</f>
+        <f t="shared" si="6"/>
         <v>338.26210495795885</v>
       </c>
     </row>
@@ -18591,7 +18679,7 @@
         <v>543272</v>
       </c>
       <c r="M405" s="1">
-        <f>D405/I405</f>
+        <f t="shared" si="6"/>
         <v>334.83580167417898</v>
       </c>
     </row>
@@ -18633,7 +18721,7 @@
         <v>534910</v>
       </c>
       <c r="M406" s="1">
-        <f>D406/I406</f>
+        <f t="shared" si="6"/>
         <v>331.48269105160028</v>
       </c>
     </row>
@@ -18675,7 +18763,7 @@
         <v>446372</v>
       </c>
       <c r="M407" s="1">
-        <f>D407/I407</f>
+        <f t="shared" si="6"/>
         <v>305.53009471432938</v>
       </c>
     </row>
@@ -18717,7 +18805,7 @@
         <v>517008</v>
       </c>
       <c r="M408" s="1">
-        <f>D408/I408</f>
+        <f t="shared" si="6"/>
         <v>300.2939447383892</v>
       </c>
     </row>
@@ -18759,7 +18847,7 @@
         <v>503449</v>
       </c>
       <c r="M409" s="1">
-        <f>D409/I409</f>
+        <f t="shared" si="6"/>
         <v>299.60091220068415</v>
       </c>
     </row>
@@ -18801,7 +18889,7 @@
         <v>500779</v>
       </c>
       <c r="M410" s="1">
-        <f>D410/I410</f>
+        <f t="shared" si="6"/>
         <v>296.47198339756892</v>
       </c>
     </row>
@@ -18843,7 +18931,7 @@
         <v>543699</v>
       </c>
       <c r="M411" s="1">
-        <f>D411/I411</f>
+        <f t="shared" si="6"/>
         <v>294.22222222222223</v>
       </c>
     </row>
@@ -18885,7 +18973,7 @@
         <v>570649</v>
       </c>
       <c r="M412" s="1">
-        <f>D412/I412</f>
+        <f t="shared" si="6"/>
         <v>282.91210863824972</v>
       </c>
     </row>
@@ -18927,7 +19015,7 @@
         <v>592332</v>
       </c>
       <c r="M413" s="1">
-        <f>D413/I413</f>
+        <f t="shared" si="6"/>
         <v>278.25159914712151</v>
       </c>
     </row>
@@ -18969,7 +19057,7 @@
         <v>608665</v>
       </c>
       <c r="M414" s="1">
-        <f>D414/I414</f>
+        <f t="shared" si="6"/>
         <v>267.38672286617492</v>
       </c>
     </row>
@@ -19011,7 +19099,7 @@
         <v>476589</v>
       </c>
       <c r="M415" s="1">
-        <f>D415/I415</f>
+        <f t="shared" si="6"/>
         <v>265.21537748957849</v>
       </c>
     </row>
@@ -19053,7 +19141,7 @@
         <v>523260</v>
       </c>
       <c r="M416" s="1">
-        <f>D416/I416</f>
+        <f t="shared" si="6"/>
         <v>253.57443229604709</v>
       </c>
     </row>
@@ -19095,7 +19183,7 @@
         <v>628333</v>
       </c>
       <c r="M417" s="1">
-        <f>D417/I417</f>
+        <f t="shared" si="6"/>
         <v>247.74904214559388</v>
       </c>
     </row>
@@ -19137,7 +19225,7 @@
         <v>533167</v>
       </c>
       <c r="M418" s="1">
-        <f>D418/I418</f>
+        <f t="shared" si="6"/>
         <v>247.72618477740545</v>
       </c>
     </row>
@@ -19179,7 +19267,7 @@
         <v>607259</v>
       </c>
       <c r="M419" s="1">
-        <f>D419/I419</f>
+        <f t="shared" si="6"/>
         <v>243.03916941953753</v>
       </c>
     </row>
@@ -19221,7 +19309,7 @@
         <v>518774</v>
       </c>
       <c r="M420" s="1">
-        <f>D420/I420</f>
+        <f t="shared" si="6"/>
         <v>219.48713366690492</v>
       </c>
     </row>
@@ -19263,7 +19351,7 @@
         <v>541640</v>
       </c>
       <c r="M421" s="1">
-        <f>D421/I421</f>
+        <f t="shared" si="6"/>
         <v>217.0195101701951</v>
       </c>
     </row>
@@ -19305,7 +19393,7 @@
         <v>501992</v>
       </c>
       <c r="M422" s="1">
-        <f>D422/I422</f>
+        <f t="shared" si="6"/>
         <v>208.43916427693568</v>
       </c>
     </row>
@@ -19347,7 +19435,7 @@
         <v>502624</v>
       </c>
       <c r="M423" s="1">
-        <f>D423/I423</f>
+        <f t="shared" si="6"/>
         <v>208.16409423233145</v>
       </c>
     </row>
@@ -19389,7 +19477,7 @@
         <v>571800</v>
       </c>
       <c r="M424" s="1">
-        <f>D424/I424</f>
+        <f t="shared" si="6"/>
         <v>207.12863401035443</v>
       </c>
     </row>
@@ -19431,7 +19519,7 @@
         <v>592836</v>
       </c>
       <c r="M425" s="1">
-        <f>D425/I425</f>
+        <f t="shared" si="6"/>
         <v>195.09505703422053</v>
       </c>
     </row>
@@ -19473,7 +19561,7 @@
         <v>543408</v>
       </c>
       <c r="M426" s="1">
-        <f>D426/I426</f>
+        <f t="shared" si="6"/>
         <v>191.53225806451613</v>
       </c>
     </row>
@@ -19515,7 +19603,7 @@
         <v>502046</v>
       </c>
       <c r="M427" s="1">
-        <f>D427/I427</f>
+        <f t="shared" si="6"/>
         <v>191.00719424460431</v>
       </c>
     </row>
@@ -19557,7 +19645,7 @@
         <v>543606</v>
       </c>
       <c r="M428" s="1">
-        <f>D428/I428</f>
+        <f t="shared" si="6"/>
         <v>189.47368421052633</v>
       </c>
     </row>
@@ -19599,7 +19687,7 @@
         <v>519076</v>
       </c>
       <c r="M429" s="1">
-        <f>D429/I429</f>
+        <f t="shared" si="6"/>
         <v>183.26764600501613</v>
       </c>
     </row>
@@ -19641,7 +19729,7 @@
         <v>593372</v>
       </c>
       <c r="M430" s="1">
-        <f>D430/I430</f>
+        <f t="shared" si="6"/>
         <v>182.84106891701828</v>
       </c>
     </row>
@@ -19683,7 +19771,7 @@
         <v>543294</v>
       </c>
       <c r="M431" s="1">
-        <f>D431/I431</f>
+        <f t="shared" si="6"/>
         <v>182.59935553168637</v>
       </c>
     </row>
@@ -19725,7 +19813,7 @@
         <v>622072</v>
       </c>
       <c r="M432" s="1">
-        <f>D432/I432</f>
+        <f t="shared" si="6"/>
         <v>178.755586112066</v>
       </c>
     </row>
@@ -19767,7 +19855,7 @@
         <v>594798</v>
       </c>
       <c r="M433" s="1">
-        <f>D433/I433</f>
+        <f t="shared" si="6"/>
         <v>178.72143817204301</v>
       </c>
     </row>
@@ -19809,7 +19897,7 @@
         <v>608379</v>
       </c>
       <c r="M434" s="1">
-        <f>D434/I434</f>
+        <f t="shared" si="6"/>
         <v>177.05141300646918</v>
       </c>
     </row>
@@ -19851,7 +19939,7 @@
         <v>543101</v>
       </c>
       <c r="M435" s="1">
-        <f>D435/I435</f>
+        <f t="shared" si="6"/>
         <v>174.21901819430141</v>
       </c>
     </row>
@@ -19893,7 +19981,7 @@
         <v>523989</v>
       </c>
       <c r="M436" s="1">
-        <f>D436/I436</f>
+        <f t="shared" si="6"/>
         <v>171.20106171201061</v>
       </c>
     </row>
@@ -19935,7 +20023,7 @@
         <v>571666</v>
       </c>
       <c r="M437" s="1">
-        <f>D437/I437</f>
+        <f t="shared" si="6"/>
         <v>168.47468770545694</v>
       </c>
     </row>
@@ -19977,7 +20065,7 @@
         <v>543243</v>
       </c>
       <c r="M438" s="1">
-        <f>D438/I438</f>
+        <f t="shared" si="6"/>
         <v>166.50422352176739</v>
       </c>
     </row>
@@ -20019,7 +20107,7 @@
         <v>502043</v>
       </c>
       <c r="M439" s="1">
-        <f>D439/I439</f>
+        <f t="shared" si="6"/>
         <v>166.1514683153014</v>
       </c>
     </row>
@@ -20061,7 +20149,7 @@
         <v>571946</v>
       </c>
       <c r="M440" s="1">
-        <f>D440/I440</f>
+        <f t="shared" si="6"/>
         <v>164.76747767169695</v>
       </c>
     </row>
@@ -20103,7 +20191,7 @@
         <v>543037</v>
       </c>
       <c r="M441" s="1">
-        <f>D441/I441</f>
+        <f t="shared" si="6"/>
         <v>163.99011735639283</v>
       </c>
     </row>
@@ -20145,7 +20233,7 @@
         <v>407793</v>
       </c>
       <c r="M442" s="1">
-        <f>D442/I442</f>
+        <f t="shared" si="6"/>
         <v>162.29613047649505</v>
       </c>
     </row>
@@ -20187,7 +20275,7 @@
         <v>543521</v>
       </c>
       <c r="M443" s="1">
-        <f>D443/I443</f>
+        <f t="shared" si="6"/>
         <v>159.30268435668003</v>
       </c>
     </row>
@@ -20229,7 +20317,7 @@
         <v>572971</v>
       </c>
       <c r="M444" s="1">
-        <f>D444/I444</f>
+        <f t="shared" si="6"/>
         <v>150.20045819014891</v>
       </c>
     </row>
